--- a/OperatingProfitability.xlsx
+++ b/OperatingProfitability.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\Documents\GitHub\Fama-French_Factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\Documents\GitHub\BR-Fama-French-Factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4C8203-079D-424B-BE77-E5FBAC13F9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADAEB28-0EB3-4BF0-9739-0AB504B9E855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="738" xr2:uid="{FEFC4317-2C94-411F-B0C2-E84FC760457F}"/>
   </bookViews>
@@ -17,220 +17,220 @@
     <sheet name="CONTROLE" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID005ae650d98148ab9bb04a5f0760cd9b" localSheetId="0" hidden="1">TODOS!$EA$2:$EA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID0294fa893bfd42f8a4f25ea0fde8bb06" localSheetId="0" hidden="1">TODOS!$EU$2:$EU$7538</definedName>
-    <definedName name="_ECO_RANGE_ID045a7fefb9f04dbc91d7cce503dee9d2" localSheetId="0" hidden="1">TODOS!$GB$2:$GB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID045fe690fae84f2885172b99437b290a" localSheetId="0" hidden="1">TODOS!$FM$2:$FM$7538</definedName>
-    <definedName name="_ECO_RANGE_ID04d718a6bcc64334be01a95fb090721e" localSheetId="0" hidden="1">TODOS!$CT$2:$CT$7538</definedName>
-    <definedName name="_ECO_RANGE_ID05196df9fb9741b59e8becd49d7c6400" localSheetId="0" hidden="1">TODOS!$DK$2:$DK$7538</definedName>
-    <definedName name="_ECO_RANGE_ID07915c9d40d24d98a536cb758a1dfc37" localSheetId="0" hidden="1">TODOS!$EO$2:$EO$7538</definedName>
-    <definedName name="_ECO_RANGE_ID0c295335dc7b46f99ef4c93e3b86a317" localSheetId="0" hidden="1">TODOS!$FV$2:$FV$7538</definedName>
-    <definedName name="_ECO_RANGE_ID0d88b1dd0dbc4568a0124c7899e686c0" localSheetId="0" hidden="1">TODOS!$EC$2:$EC$7538</definedName>
-    <definedName name="_ECO_RANGE_ID0fc115ecb8f24722ab835fb6163a6a5b" localSheetId="0" hidden="1">TODOS!$AN$2:$AN$7538</definedName>
-    <definedName name="_ECO_RANGE_ID0fcac30cbec344dfb32a2ceca283ce20" localSheetId="0" hidden="1">TODOS!$CL$2:$CL$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1115904f02b34af8bcb459d9347f84ff" localSheetId="0" hidden="1">TODOS!$FY$2:$FY$7538</definedName>
-    <definedName name="_ECO_RANGE_ID148d6ccc4284491596898a0c71c459ab" localSheetId="0" hidden="1">TODOS!$F$2:$F$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1644205f1ea3441d99bbc54e302b4b0c" localSheetId="0" hidden="1">TODOS!$AG$2:$AG$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1baca11ac92a4a9fa7a7e7359278a948" localSheetId="0" hidden="1">TODOS!$HI$2:$HI$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1bc1770c488a4564a6947666c4d4aa29" localSheetId="0" hidden="1">TODOS!$DV$2:$DV$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1cb2ae3bf14b4ad7a182c546832efdeb" localSheetId="0" hidden="1">TODOS!$BX$2:$BX$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1e961be931ec4298836c89bef9e5cab1" localSheetId="0" hidden="1">TODOS!$X$2:$X$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1ed9843665524dddbc733ceb632c002a" localSheetId="0" hidden="1">TODOS!$H$2:$H$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1ef32b824235481f809b0cda69e80d36" localSheetId="0" hidden="1">TODOS!$I$2:$I$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1f0c90a45d4c4d23a4556a4e7ba51d18" localSheetId="0" hidden="1">TODOS!$Q$2:$Q$7538</definedName>
-    <definedName name="_ECO_RANGE_ID209727eeed1d4c6cacb5b8b2e662ba73" localSheetId="0" hidden="1">TODOS!$GO$2:$GO$7538</definedName>
-    <definedName name="_ECO_RANGE_ID217d9381853b417986532934977caacd" localSheetId="0" hidden="1">TODOS!$DP$2:$DP$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2241134abf304d50934d54fc8e2a580c" localSheetId="0" hidden="1">TODOS!$HA$2:$HA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID228a4d2ba26e4cc89a585dae470ea97c" localSheetId="0" hidden="1">TODOS!$T$2:$T$7538</definedName>
-    <definedName name="_ECO_RANGE_ID22c19e55c9434d3c8828c294a51007ee" localSheetId="0" hidden="1">TODOS!$ED$2:$ED$7538</definedName>
-    <definedName name="_ECO_RANGE_ID232543946f87412ab2248a8d315408d3" localSheetId="0" hidden="1">TODOS!$AQ$2:$AQ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID23a41d2b09d54e98aa206b4a9b3ed1d3" localSheetId="0" hidden="1">TODOS!$CC$2:$CC$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2405316fd4cb4f1a81215c854b54d9f4" localSheetId="0" hidden="1">TODOS!$CO$2:$CO$7538</definedName>
-    <definedName name="_ECO_RANGE_ID251a21ac50ed483b83fd966b411c7fd3" localSheetId="0" hidden="1">TODOS!$CJ$2:$CJ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID252084c1d2a6476c99eb887315d2f45a" localSheetId="0" hidden="1">TODOS!$CR$2:$CR$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2591aaa1d5fe4ad1874a1a9adf455423" localSheetId="0" hidden="1">TODOS!$E$2:$E$7538</definedName>
-    <definedName name="_ECO_RANGE_ID25f38b57370342ac9263cbed1685645b" localSheetId="0" hidden="1">TODOS!$FA$2:$FA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID271071578ae64ad1a2296366912d3cc1" localSheetId="0" hidden="1">TODOS!$CE$2:$CE$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2865f99011bb43e3a1e3fa9ff10d3a8f" localSheetId="0" hidden="1">TODOS!$K$2:$K$7538</definedName>
-    <definedName name="_ECO_RANGE_ID28d094c0b1274910955b157b98fc8ef6" localSheetId="0" hidden="1">TODOS!$EB$2:$EB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2a2dddee71974034992710e9233b6fef" localSheetId="0" hidden="1">TODOS!$DF$2:$DF$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2a84a86e49584333b52aff3340fd2e8f" localSheetId="0" hidden="1">TODOS!$BJ$2:$BJ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2d1a0d8a19c74b18b51f8664dc057732" localSheetId="0" hidden="1">TODOS!$AR$2:$AR$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2e252f1b07184d86ae9b817469a90526" localSheetId="0" hidden="1">TODOS!$C$2:$C$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2fb4bc26817146c39ff926daf581297a" localSheetId="0" hidden="1">TODOS!$DU$2:$DU$7538</definedName>
-    <definedName name="_ECO_RANGE_ID33833e8aae4d46649fbd8433203d83f6" localSheetId="0" hidden="1">TODOS!$O$2:$O$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3933bb4d0a36465580a8106e052d13a4" localSheetId="0" hidden="1">TODOS!$AZ$2:$AZ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3abfd538e96f4818958ebd282fb02893" localSheetId="0" hidden="1">TODOS!$GW$2:$GW$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3c5058d405ab4120aef6368d9c27ae6e" localSheetId="0" hidden="1">TODOS!$CI$2:$CI$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3c5bc5fe4cbd4762b77415bfd62840bf" localSheetId="0" hidden="1">TODOS!$AK$2:$AK$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3ebe2d34e8864a538a0992db4c4084f9" localSheetId="0" hidden="1">TODOS!$EM$2:$EM$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3fc3f007ba174f7da3d8fd17773fd047" localSheetId="0" hidden="1">TODOS!$CH$2:$CH$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4452d9b524c444b3aa9bd6b358a29c0e" localSheetId="0" hidden="1">TODOS!$GA$2:$GA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID468b1e6e6b4940619a64e29c057f57ef" localSheetId="0" hidden="1">TODOS!$HE$2:$HE$7538</definedName>
-    <definedName name="_ECO_RANGE_ID46ad8b7a32e442128207648d746ba6f1" localSheetId="0" hidden="1">TODOS!$EL$2:$EL$7538</definedName>
-    <definedName name="_ECO_RANGE_ID46d47c0f5c824dbb983196b34637d2c1" localSheetId="0" hidden="1">TODOS!$CK$2:$CK$7538</definedName>
-    <definedName name="_ECO_RANGE_ID482241d9b5ba46eaa180478949858853" localSheetId="0" hidden="1">TODOS!$AI$2:$AI$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4e4109c6e5c64a0ca02acff335cf4d47" localSheetId="0" hidden="1">TODOS!$AU$2:$AU$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4e674d4503324154a7e31ff1c45336ce" localSheetId="0" hidden="1">TODOS!$AW$2:$AW$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4f1abd0a9ed040098ed1d1264281ad0e" localSheetId="0" hidden="1">TODOS!$CN$2:$CN$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4f9f206a761c4e34a68a7ddc09636ab4" localSheetId="0" hidden="1">TODOS!$FC$2:$FC$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4fc4628f6f4d4d7b90ab78835f54c8be" localSheetId="0" hidden="1">TODOS!$FU$2:$FU$7538</definedName>
-    <definedName name="_ECO_RANGE_ID50f487c7b7494764b01fb8a8bc53fe3a" localSheetId="0" hidden="1">TODOS!$N$2:$N$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5131638f84be4bc9af8e7a6a24a7939e" localSheetId="0" hidden="1">TODOS!$GH$2:$GH$7538</definedName>
-    <definedName name="_ECO_RANGE_ID52965f2084214292964e4952197505e9" localSheetId="0" hidden="1">TODOS!$DO$2:$DO$7538</definedName>
-    <definedName name="_ECO_RANGE_ID540e751777f14c008ced70560ee340a4" localSheetId="0" hidden="1">TODOS!$CV$2:$CV$7538</definedName>
-    <definedName name="_ECO_RANGE_ID54f34a3a65834c1f8fa3db49b116d3ab" localSheetId="0" hidden="1">TODOS!$DD$2:$DD$7538</definedName>
-    <definedName name="_ECO_RANGE_ID55a0cd23692847ed9eae7f0a6fc69ba6" localSheetId="0" hidden="1">TODOS!$EY$2:$EY$7538</definedName>
-    <definedName name="_ECO_RANGE_ID56e74145b39a4f94b1d6248bcb47f006" localSheetId="0" hidden="1">TODOS!$AO$2:$AO$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5727b2a03728442ea42e2d9e7bfd5172" localSheetId="0" hidden="1">TODOS!$S$2:$S$7538</definedName>
-    <definedName name="_ECO_RANGE_ID579c4fa6b0204fa5ae998a0eb838336d" localSheetId="0" hidden="1">TODOS!$AM$2:$AM$7538</definedName>
-    <definedName name="_ECO_RANGE_ID58cd7503dfab4d98966588114ba47cd6" localSheetId="0" hidden="1">TODOS!$BT$2:$BT$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5a122d22b4c5475d9d7dfc17ac056307" localSheetId="0" hidden="1">TODOS!$DB$2:$DB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5a2eacfb7e9b49118f998e289f0807f4" localSheetId="0" hidden="1">TODOS!$BY$2:$BY$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5a5173c19c2241a8be320b575df64f96" localSheetId="0" hidden="1">TODOS!$FW$2:$FW$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5bdc87501f0e4c149e2b06ee7d7a347f" localSheetId="0" hidden="1">TODOS!$FB$2:$FB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5ddbf0c56863401696cbe82b559cc330" localSheetId="0" hidden="1">TODOS!$U$2:$U$7538</definedName>
-    <definedName name="_ECO_RANGE_ID60bbdf5ee3374d7cb02b5c612e311a44" localSheetId="0" hidden="1">TODOS!$AB$2:$AB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID60e20003d4b54901a9d56b5b2fdfd4a4" localSheetId="0" hidden="1">TODOS!$DX$2:$DX$7538</definedName>
-    <definedName name="_ECO_RANGE_ID618f926ffbf548af8d25476c4c6bcb40" localSheetId="0" hidden="1">TODOS!$GT$2:$GT$7538</definedName>
-    <definedName name="_ECO_RANGE_ID61b44765c3294d13981fdf18e1a2d650" localSheetId="0" hidden="1">TODOS!$EJ$2:$EJ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6443b65097354033b39f64a0abb139b0" localSheetId="0" hidden="1">TODOS!$GS$2:$GS$7538</definedName>
-    <definedName name="_ECO_RANGE_ID64ccd201c0f04fc2b0756db060c0cf2d" localSheetId="0" hidden="1">TODOS!$CD$2:$CD$7538</definedName>
-    <definedName name="_ECO_RANGE_ID64d58616ed334899b9d3d6dbbb9818c6" localSheetId="0" hidden="1">TODOS!$BR$2:$BR$7538</definedName>
-    <definedName name="_ECO_RANGE_ID651e09c2164b4db89cd4b0445491ca02" localSheetId="0" hidden="1">TODOS!$GL$2:$GL$7538</definedName>
-    <definedName name="_ECO_RANGE_ID65c8c34d2df74a509835fb49cd4bc79f" localSheetId="0" hidden="1">TODOS!$DC$2:$DC$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6746073a44a14265ab258d72c24399fc" localSheetId="0" hidden="1">TODOS!$AP$2:$AP$7538</definedName>
-    <definedName name="_ECO_RANGE_ID683ed62b6a4f4e299110aab6f809c9f8" localSheetId="0" hidden="1">TODOS!$CQ$2:$CQ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID68ffa9e00b61414fb4629d4c304997b8" localSheetId="0" hidden="1">TODOS!$EV$2:$EV$7538</definedName>
-    <definedName name="_ECO_RANGE_ID69c7ec9c199941f693d56fbb88096d77" localSheetId="0" hidden="1">TODOS!$DM$2:$DM$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6ba94b53bfe2436c9ff5e35e4935359d" localSheetId="0" hidden="1">TODOS!$AA$2:$AA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6c4a41ab3aec41899d7298aa295a81a6" localSheetId="0" hidden="1">TODOS!$BW$2:$BW$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6eb10aeedbd14c2d95afa894e486e1d5" localSheetId="0" hidden="1">TODOS!$DT$2:$DT$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6ec178ca8ab642afbb2eccfd5cc5cd59" localSheetId="0" hidden="1">TODOS!$HF$2:$HF$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6f88526902b3468fb41855467aa98594" localSheetId="0" hidden="1">TODOS!$CW$2:$CW$7538</definedName>
-    <definedName name="_ECO_RANGE_ID70aa9cf4cf6b4e88a1869dcaa96ebf1e" localSheetId="0" hidden="1">TODOS!$BB$2:$BB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID72821e50b40b4c768d7dbd6470ce6917" localSheetId="0" hidden="1">TODOS!$FE$2:$FE$7538</definedName>
-    <definedName name="_ECO_RANGE_ID74de9613f7ee44b6b47c3be2e27e5c06" localSheetId="0" hidden="1">TODOS!$BZ$2:$BZ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID74e0853f4df34d6aa940b605013a92b9" localSheetId="0" hidden="1">TODOS!$AV$2:$AV$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7697fb2c6e89416684d19c83efe8e2ec" localSheetId="0" hidden="1">TODOS!$FO$2:$FO$7538</definedName>
-    <definedName name="_ECO_RANGE_ID77e955c58b324998879e22bcf037f3ba" localSheetId="0" hidden="1">TODOS!$FK$2:$FK$7538</definedName>
-    <definedName name="_ECO_RANGE_ID78f7ea4338474ae0a57c7b94f0930446" localSheetId="0" hidden="1">TODOS!$CM$2:$CM$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7a0e2f155838438b8fa624f5ebe0cbbb" localSheetId="0" hidden="1">TODOS!$BE$2:$BE$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7a55169f6ba54edbb4b92bd96c1d368b" localSheetId="0" hidden="1">TODOS!$GD$2:$GD$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7a6292b4aca5470c822e3db7d58fc8d0" localSheetId="0" hidden="1">TODOS!$CP$2:$CP$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7f4951999ee6450290f9ca559aa51f3e" localSheetId="0" hidden="1">TODOS!$FP$2:$FP$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7f706cfdaec040e9a6e19c8e0cb39ceb" localSheetId="0" hidden="1">TODOS!$HJ$2:$HJ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID81d36c13560e4e22a4490571333c1787" localSheetId="0" hidden="1">TODOS!$BS$2:$BS$7538</definedName>
-    <definedName name="_ECO_RANGE_ID82dbcfc0c4c54249b90216bf3e371224" localSheetId="0" hidden="1">TODOS!$Z$2:$Z$7538</definedName>
-    <definedName name="_ECO_RANGE_ID84aecb41add44cd78612da6ae2edd4c4" localSheetId="0" hidden="1">TODOS!$FT$2:$FT$7538</definedName>
-    <definedName name="_ECO_RANGE_ID854a5d45fbc24957b075ff989103fdb3" localSheetId="0" hidden="1">TODOS!$GI$2:$GI$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8563da7cf03a477eac15028ddba55d84" localSheetId="0" hidden="1">TODOS!$EH$2:$EH$7538</definedName>
-    <definedName name="_ECO_RANGE_ID858da757bda846168a90391bb2df14b6" localSheetId="0" hidden="1">TODOS!$Y$2:$Y$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8617563ce3474ac9be8472b2406b951c" localSheetId="0" hidden="1">TODOS!$BL$2:$BL$7538</definedName>
-    <definedName name="_ECO_RANGE_ID87f007c510de44ea834088d0106bf540" localSheetId="0" hidden="1">TODOS!$DQ$2:$DQ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID886de076a7e04ba0bb074cf4db82e718" localSheetId="0" hidden="1">TODOS!$HB$2:$HB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID88a64a3b907d42ebb722b19daebf0e7c" localSheetId="0" hidden="1">TODOS!$FN$2:$FN$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8a44a43bdd034a09890690bbca80d90d" localSheetId="0" hidden="1">TODOS!$CZ$2:$CZ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8a4ef19a2fde48868e72affb3db0feef" localSheetId="0" hidden="1">TODOS!$GU$2:$GU$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8a7e018841794018ae2c9da5fa665a56" localSheetId="0" hidden="1">TODOS!$BN$2:$BN$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8c02f38a2e3d40899914569f7dd89467" localSheetId="0" hidden="1">TODOS!$CA$2:$CA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8c3143c738f4418fb32e7528dc7f9fdf" localSheetId="0" hidden="1">TODOS!$HD$2:$HD$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8ca2296367c1431a9f2ca9731fcac4c0" localSheetId="0" hidden="1">TODOS!$EW$2:$EW$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8e291c1e623f449e93987afcede2909d" localSheetId="0" hidden="1">TODOS!$R$2:$R$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8e97f2ff28fc4c74a2478e60fbdf492c" localSheetId="0" hidden="1">TODOS!$GJ$2:$GJ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8ebb1c2ed6fb43a1a0333cc7a0f84191" localSheetId="0" hidden="1">TODOS!$BC$2:$BC$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8fdcce2432f143d1bd701bc7b10bca3f" localSheetId="0" hidden="1">TODOS!$FH$2:$FH$7538</definedName>
-    <definedName name="_ECO_RANGE_ID91617ebff3c04599861d33cb3de5f910" localSheetId="0" hidden="1">TODOS!$FF$2:$FF$7538</definedName>
-    <definedName name="_ECO_RANGE_ID95e60a1edaa8467ea04385c833dee061" localSheetId="0" hidden="1">TODOS!$AS$2:$AS$7538</definedName>
-    <definedName name="_ECO_RANGE_ID963f7eeaac3d446dbb857fa637ffc85f" localSheetId="0" hidden="1">TODOS!$A$2:$B$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9718a27d34ca4e19acb4107d35f34d84" localSheetId="0" hidden="1">TODOS!$EZ$2:$EZ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID977312db4ba34f4e9c39840f329d1d5e" localSheetId="0" hidden="1">TODOS!$FZ$2:$FZ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID98bae0e63e7d4aabb1ed00264507664f" localSheetId="0" hidden="1">TODOS!$DY$2:$DY$7538</definedName>
-    <definedName name="_ECO_RANGE_ID99d9ba6a92f94932b5dac4db0efb1ebb" localSheetId="0" hidden="1">TODOS!$GG$2:$GG$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9a4d7482c4a3436ca48d62d12f893991" localSheetId="0" hidden="1">TODOS!$BF$2:$BF$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9afebce14c614ab6a1d4872362bf3c40" localSheetId="0" hidden="1">TODOS!$BA$2:$BA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9be41f9195c9460286fd76ff597dd4db" localSheetId="0" hidden="1">TODOS!$CX$2:$CX$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9c074836ccef4e37ae5c3e890dcf3caf" localSheetId="0" hidden="1">TODOS!$P$2:$P$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9c727378f2b443b5808a4dea0e719f3f" localSheetId="0" hidden="1">TODOS!$M$2:$M$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9d55ca58423e496888fd42c01ed2432f" localSheetId="0" hidden="1">TODOS!$FX$2:$FX$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9dd50c2ee4294c68be0842c6e3916a40" localSheetId="0" hidden="1">TODOS!$AH$2:$AH$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa0841c12a9044c7b9e6f96984129bfe2" localSheetId="0" hidden="1">TODOS!$FS$2:$FS$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa18336729283456b8afd1ff317f81a1e" localSheetId="0" hidden="1">TODOS!$DE$2:$DE$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa4cad8a694da4de0af69fe8092eccb45" localSheetId="0" hidden="1">TODOS!$AL$2:$AL$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa557456c1afc423581c697c503b5fbad" localSheetId="0" hidden="1">TODOS!$EP$2:$EP$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa6150048e53845979caa6b440e226060" localSheetId="0" hidden="1">TODOS!$AE$2:$AE$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa6fbfe428ef243e4b2489f03590cdbd9" localSheetId="0" hidden="1">TODOS!$ES$2:$ES$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa73b7559671c4111a1cbe2034dec59d2" localSheetId="0" hidden="1">TODOS!$GX$2:$GX$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa7788a3f8dd44f74b443c7f4439bc5a5" localSheetId="0" hidden="1">TODOS!$EE$2:$EE$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa98a881de2884e0f9e529e2f3d6732c9" localSheetId="0" hidden="1">TODOS!$DN$2:$DN$7538</definedName>
-    <definedName name="_ECO_RANGE_IDaa3c23aca1d149759170bc84ea14d850" localSheetId="0" hidden="1">TODOS!$DI$2:$DI$7538</definedName>
-    <definedName name="_ECO_RANGE_IDab9c2617d29e407aab69143ee50a97ac" localSheetId="0" hidden="1">TODOS!$BO$2:$BO$7538</definedName>
-    <definedName name="_ECO_RANGE_IDac5a59c678de416aa87bae981971adf2" localSheetId="0" hidden="1">TODOS!$AJ$2:$AJ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDac8cf28cfb394cdaa668fa1499184246" localSheetId="0" hidden="1">TODOS!$BI$2:$BI$7538</definedName>
-    <definedName name="_ECO_RANGE_IDadadf699b06040908532ae6cb3c0b916" localSheetId="0" hidden="1">TODOS!$CY$2:$CY$7538</definedName>
-    <definedName name="_ECO_RANGE_IDadb58f32dde54af788913bc820e46850" localSheetId="0" hidden="1">TODOS!$CU$2:$CU$7538</definedName>
-    <definedName name="_ECO_RANGE_IDae4fecf44e994c2a9d6eb6c49fceb4d5" localSheetId="0" hidden="1">TODOS!$CS$2:$CS$7538</definedName>
-    <definedName name="_ECO_RANGE_IDaeea7fc6dba645ee992574adb7354f9d" localSheetId="0" hidden="1">TODOS!$GP$2:$GP$7538</definedName>
-    <definedName name="_ECO_RANGE_IDaef23fa67e6f432dbccb4ce2cf7504e9" localSheetId="0" hidden="1">TODOS!$ER$2:$ER$7538</definedName>
-    <definedName name="_ECO_RANGE_IDaf3cbf3df3d14c108b310832249b9210" localSheetId="0" hidden="1">TODOS!$GE$2:$GE$7538</definedName>
-    <definedName name="_ECO_RANGE_IDb384a12df9824d62bce907569ba2748f" localSheetId="0" hidden="1">TODOS!$GZ$2:$GZ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDb3f5383859284e38a65b5ec599b07bef" localSheetId="0" hidden="1">TODOS!$FJ$2:$FJ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDb4848c58e1eb461a9e76af593e0631fb" localSheetId="0" hidden="1">TODOS!$AD$2:$AD$7538</definedName>
-    <definedName name="_ECO_RANGE_IDb63929117c3d4f8f90ba50c07b742c60" localSheetId="0" hidden="1">TODOS!$GC$2:$GC$7538</definedName>
-    <definedName name="_ECO_RANGE_IDb9af527fc7354ee8a3ec8c9dfc72a4a2" localSheetId="0" hidden="1">TODOS!$HG$2:$HG$7538</definedName>
-    <definedName name="_ECO_RANGE_IDbd352a2eac6e4947a56b7db84dc8c902" localSheetId="0" hidden="1">TODOS!$AX$2:$AX$7538</definedName>
-    <definedName name="_ECO_RANGE_IDbe8b20ddd7c3460c843d2eef7c8e8b9d" localSheetId="0" hidden="1">TODOS!$GR$2:$GR$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc015c6ee9a294c519020fc792dff9121" localSheetId="0" hidden="1">TODOS!$EN$2:$EN$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc032915bfbbe4438a3b7f9cc9af2aee9" localSheetId="0" hidden="1">TODOS!$J$2:$J$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc1c4874da77b4c4fbb605157ebe2fe01" localSheetId="0" hidden="1">TODOS!$V$2:$V$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc3f2031dbba445969107599912b89d47" localSheetId="0" hidden="1">TODOS!$BD$2:$BD$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc7af2378d52b4f57a796d959660b6667" localSheetId="0" hidden="1">TODOS!$HK$2:$HK$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc99625a4e2ed4e14a2b6fce44ecdc290" localSheetId="0" hidden="1">TODOS!$DA$2:$DA$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc9d978b342824667afa81a15eaefa685" localSheetId="0" hidden="1">TODOS!$EF$2:$EF$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc9e61a9498f04abca63866f880dd24bc" localSheetId="0" hidden="1">TODOS!$BM$2:$BM$7538</definedName>
-    <definedName name="_ECO_RANGE_IDcac36dabac654f5cbbe82be47c3e4916" localSheetId="0" hidden="1">TODOS!$EI$2:$EI$7538</definedName>
-    <definedName name="_ECO_RANGE_IDcac75165a20c4cda8fd9fc3754436f4c" localSheetId="0" hidden="1">TODOS!$DR$2:$DR$7538</definedName>
-    <definedName name="_ECO_RANGE_IDcb56acbb6ac94a9fb64872b45954b075" localSheetId="0" hidden="1">TODOS!$ET$2:$ET$7538</definedName>
-    <definedName name="_ECO_RANGE_IDcde8bb9233ce4680a5bcbd8fc7e1efc2" localSheetId="0" hidden="1">TODOS!$AC$2:$AC$7538</definedName>
-    <definedName name="_ECO_RANGE_IDce20707c6a04408ea662913551c03778" localSheetId="0" hidden="1">TODOS!$CB$2:$CB$7538</definedName>
-    <definedName name="_ECO_RANGE_IDcf55e5a8877d454bbbf2879d1b4104d0" localSheetId="0" hidden="1">TODOS!$EG$2:$EG$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd4d919a57fba42e4b0728329117a6d5d" localSheetId="0" hidden="1">TODOS!$FI$2:$FI$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd5e17880e8d64bc3881b060c3bfb0ad5" localSheetId="0" hidden="1">TODOS!$BV$2:$BV$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd733d05b9136430fa458289f76f93905" localSheetId="0" hidden="1">TODOS!$L$2:$L$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd7a96bab28964444a23372c0b36eb2c5" localSheetId="0" hidden="1">TODOS!$DZ$2:$DZ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd8029091f38d4267803929e0c758b227" localSheetId="0" hidden="1">TODOS!$DS$2:$DS$7538</definedName>
-    <definedName name="_ECO_RANGE_IDda2b5f84a27c40309a00298fc7c6eb14" localSheetId="0" hidden="1">TODOS!$DJ$2:$DJ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDdd8190fe0982414cb0a820e8cb6fc36d" localSheetId="0" hidden="1">TODOS!$CG$2:$CG$7538</definedName>
-    <definedName name="_ECO_RANGE_IDdd916e5718f7481dbcc9a5597dbbc67c" localSheetId="0" hidden="1">TODOS!$DH$2:$DH$7538</definedName>
-    <definedName name="_ECO_RANGE_IDdec19040367643dabd083f1be3dde282" localSheetId="0" hidden="1">TODOS!$GK$2:$GK$7538</definedName>
-    <definedName name="_ECO_RANGE_IDdeda103621ee45f6bda2f3cd84630487" localSheetId="0" hidden="1">TODOS!$GV$2:$GV$7538</definedName>
-    <definedName name="_ECO_RANGE_IDdf01d4c014994a9699584b8801387b23" localSheetId="0" hidden="1">TODOS!$BG$2:$BG$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe1bd4926a7914f4f9f01e3bf2fe16708" localSheetId="0" hidden="1">TODOS!$G$2:$G$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe1ecf9511e3946779166ab3f8b793210" localSheetId="0" hidden="1">TODOS!$HC$2:$HC$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe231c0da969a4a369dea195010834a18" localSheetId="0" hidden="1">TODOS!$B$1</definedName>
-    <definedName name="_ECO_RANGE_IDe2a246dcdde741f084aaa5b1b56b4af3" localSheetId="0" hidden="1">TODOS!$BH$2:$BH$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe38ad613d9884fa5a0f99bed7c236f00" localSheetId="0" hidden="1">TODOS!$AY$2:$AY$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe4a951346e4c406aa48974674aea6719" localSheetId="0" hidden="1">TODOS!$BK$2:$BK$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe5496bbacd394a49a863783fa1f0f042" localSheetId="0" hidden="1">TODOS!$EQ$2:$EQ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe61bbc9f8624464fb866c46da3b16143" localSheetId="0" hidden="1">TODOS!$FQ$2:$FQ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe67cc21a302148f0a487dd3bab829ef5" localSheetId="0" hidden="1">TODOS!$FD$2:$FD$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe7db96dc7e53472fb979a6af417e8616" localSheetId="0" hidden="1">TODOS!$DL$2:$DL$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe840a4d55dec41f7acd7ada58aba0b44" localSheetId="0" hidden="1">TODOS!$EK$2:$EK$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe86b7e8732f94bdb906072b0477929d3" localSheetId="0" hidden="1">TODOS!$EX$2:$EX$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe9363a48d000455ca3e77f7ff34ab701" localSheetId="0" hidden="1">TODOS!$GF$2:$GF$7538</definedName>
-    <definedName name="_ECO_RANGE_IDedd6ae2610a445d58029838407baeb2b" localSheetId="0" hidden="1">TODOS!$FR$2:$FR$7538</definedName>
-    <definedName name="_ECO_RANGE_IDede2e929727c4176bbfaf8f31c5a9e16" localSheetId="0" hidden="1">TODOS!$AT$2:$AT$7538</definedName>
-    <definedName name="_ECO_RANGE_IDef92b026379c4a7abcac8bc1be415286" localSheetId="0" hidden="1">TODOS!$D$2:$D$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf0318443f451435da1121b02c1841498" localSheetId="0" hidden="1">TODOS!$W$2:$W$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf28a470ce2134b42a469b2b4b87a1061" localSheetId="0" hidden="1">TODOS!$BP$2:$BP$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf2ea38c864f1404593afc0c765473113" localSheetId="0" hidden="1">TODOS!$GY$2:$GY$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf33e3da1d69f4b8283a8772399305859" localSheetId="0" hidden="1">TODOS!$BQ$2:$BQ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf4ff52033620436baf900a7631fdc5bf" localSheetId="0" hidden="1">TODOS!$DG$2:$DG$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf68961333a14430181b1f83a113c773a" localSheetId="0" hidden="1">TODOS!$GQ$2:$GQ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf85666413f0c46ba97ab324c959fb9e8" localSheetId="0" hidden="1">TODOS!$AF$2:$AF$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfbbe4126ef594373b93fd10a7024e904" localSheetId="0" hidden="1">TODOS!$CF$2:$CF$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfe3e5cdcf9264046a4d4f496a04e4b6d" localSheetId="0" hidden="1">TODOS!$HH$2:$HH$7538</definedName>
-    <definedName name="_ECO_RANGE_IDff6c58246be3496bb93866147c6e4ba9" localSheetId="0" hidden="1">TODOS!$BU$2:$BU$7538</definedName>
+    <definedName name="_ECO_RANGE_ID0088f2409da74ba4a353e0471c6c32c3" localSheetId="0" hidden="1">TODOS!$W$2:$W$7566</definedName>
+    <definedName name="_ECO_RANGE_ID00f2c11d5d80412fbe8efb14046ac6ef" localSheetId="0" hidden="1">TODOS!$GT$2:$GT$7566</definedName>
+    <definedName name="_ECO_RANGE_ID022d4dcece1244f2a4f16c2564c274bf" localSheetId="0" hidden="1">TODOS!$K$2:$K$7566</definedName>
+    <definedName name="_ECO_RANGE_ID026d09e143ed45f8a95c587f578a3b37" localSheetId="0" hidden="1">TODOS!$CF$2:$CF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID047cc540871544e9a92ca004197eedab" localSheetId="0" hidden="1">TODOS!$FR$2:$FR$7566</definedName>
+    <definedName name="_ECO_RANGE_ID054057efa7f44cca8503dfd2ada3e17c" localSheetId="0" hidden="1">TODOS!$DC$2:$DC$7566</definedName>
+    <definedName name="_ECO_RANGE_ID058db877d89d43a68c9c6caae9de7bb6" localSheetId="0" hidden="1">TODOS!$FV$2:$FV$7566</definedName>
+    <definedName name="_ECO_RANGE_ID05967c48cfc647b69b7fff43836ab315" localSheetId="0" hidden="1">TODOS!$EN$2:$EN$7566</definedName>
+    <definedName name="_ECO_RANGE_ID05c9b011b319465e84ce4c2f86338762" localSheetId="0" hidden="1">TODOS!$DK$2:$DK$7566</definedName>
+    <definedName name="_ECO_RANGE_ID06c7bde1ae9c4176afa2f28736c0657b" localSheetId="0" hidden="1">TODOS!$BQ$2:$BQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID088a4958e7b847f8a95105525591784c" localSheetId="0" hidden="1">TODOS!$EQ$2:$EQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0b40be72948f47ee92f66ecc4fd3f704" localSheetId="0" hidden="1">TODOS!$FC$2:$FC$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0cbce84f3c084db0a610037795c6c314" localSheetId="0" hidden="1">TODOS!$Y$2:$Y$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0ee7b5507a8c44c399bb3fb92196ff19" localSheetId="0" hidden="1">TODOS!$FU$2:$FU$7566</definedName>
+    <definedName name="_ECO_RANGE_ID10d322a3f47b4db687ef6374229ccb5d" localSheetId="0" hidden="1">TODOS!$GY$2:$GY$7566</definedName>
+    <definedName name="_ECO_RANGE_ID11dfb5d2411e4cbea1619e282c7e8fa5" localSheetId="0" hidden="1">TODOS!$DJ$2:$DJ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID15eefafa650043fdaf489beb90d7bc59" localSheetId="0" hidden="1">TODOS!$EF$2:$EF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID16546f9563584c40b823771c2a3e807d" localSheetId="0" hidden="1">TODOS!$HI$2:$HI$7566</definedName>
+    <definedName name="_ECO_RANGE_ID17aeff7253b64cfe94e3326f4aaca12f" localSheetId="0" hidden="1">TODOS!$EK$2:$EK$7566</definedName>
+    <definedName name="_ECO_RANGE_ID17c759ea5e5944d2847511ecd0e564e5" localSheetId="0" hidden="1">TODOS!$AU$2:$AU$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1812aea2c5de4135a52bd4dc54efa00d" localSheetId="0" hidden="1">TODOS!$FY$2:$FY$7566</definedName>
+    <definedName name="_ECO_RANGE_ID187921ec96a04db8a522e77487a89786" localSheetId="0" hidden="1">TODOS!$EW$2:$EW$7566</definedName>
+    <definedName name="_ECO_RANGE_ID18a43e0dac6245ccb7ab745572c97dc0" localSheetId="0" hidden="1">TODOS!$AH$2:$AH$7566</definedName>
+    <definedName name="_ECO_RANGE_ID18b776fa918847beb9763e8a680f9c5c" localSheetId="0" hidden="1">TODOS!$BK$2:$BK$7566</definedName>
+    <definedName name="_ECO_RANGE_ID18d272ae98414b2293187443d2ac8853" localSheetId="0" hidden="1">TODOS!$BW$2:$BW$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1907bbdf51f547b28f7c705dc44d8741" localSheetId="0" hidden="1">TODOS!$J$2:$J$7566</definedName>
+    <definedName name="_ECO_RANGE_ID19482ac7103d4963adfeda71019f3a8a" localSheetId="0" hidden="1">TODOS!$S$2:$S$7566</definedName>
+    <definedName name="_ECO_RANGE_ID199720f50dee4ea08328c3f70bfb428a" localSheetId="0" hidden="1">TODOS!$V$2:$V$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1a54c5f0b90c463d993e70036507ab95" localSheetId="0" hidden="1">TODOS!$EE$2:$EE$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1aec76e5d6a5460fbe96b627b47a900c" localSheetId="0" hidden="1">TODOS!$EP$2:$EP$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1bb6c14f05ec49a2b9a03801d17a6abb" localSheetId="0" hidden="1">TODOS!$AT$2:$AT$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1d09edde6be54bcfa49fe941aafdef2e" localSheetId="0" hidden="1">TODOS!$C$2:$C$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1e2a09e3d0244c519bbd5edd22f5b5d8" localSheetId="0" hidden="1">TODOS!$BF$2:$BF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1e58e138900e4432a98151620712cfe8" localSheetId="0" hidden="1">TODOS!$CO$2:$CO$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1f1239ba6bb443a285c9fd9f9be653d7" localSheetId="0" hidden="1">TODOS!$DB$2:$DB$7566</definedName>
+    <definedName name="_ECO_RANGE_ID20fe25b8b9984e0a82a1ca5f0a5fbf0b" localSheetId="0" hidden="1">TODOS!$CH$2:$CH$7566</definedName>
+    <definedName name="_ECO_RANGE_ID21e80e1711f244aa991e2f45a21fca48" localSheetId="0" hidden="1">TODOS!$DV$2:$DV$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2af7467a9fc542cea10bcf08b472165b" localSheetId="0" hidden="1">TODOS!$DN$2:$DN$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2d5ff91df7364513af67947b2c70dc66" localSheetId="0" hidden="1">TODOS!$CU$2:$CU$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2dd55a83b193432882a7c0107becb1cb" localSheetId="0" hidden="1">TODOS!$CJ$2:$CJ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3289dd3af5f345b3a1a03165a6c3e0ec" localSheetId="0" hidden="1">TODOS!$BJ$2:$BJ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3348efe6b16d45dbbbf428de28f5c9c5" localSheetId="0" hidden="1">TODOS!$HE$2:$HE$7566</definedName>
+    <definedName name="_ECO_RANGE_ID34821efb3fde441ab97b69063c773105" localSheetId="0" hidden="1">TODOS!$EC$2:$EC$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3610ab515d464cc2914e9b23cf784987" localSheetId="0" hidden="1">TODOS!$AE$2:$AE$7566</definedName>
+    <definedName name="_ECO_RANGE_ID38302062ae99402d92d06d6f61eef855" localSheetId="0" hidden="1">TODOS!$CT$2:$CT$7566</definedName>
+    <definedName name="_ECO_RANGE_ID39bc038692814bd7a417e391a6a0836f" localSheetId="0" hidden="1">TODOS!$FI$2:$FI$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3b22e9395ab0465385d2dafc9eb94f28" localSheetId="0" hidden="1">TODOS!$GP$2:$GP$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3ce24390453f4253a5e3a8ed28956236" localSheetId="0" hidden="1">TODOS!$D$2:$D$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3ed331858ff54de9bc062809945a8a20" localSheetId="0" hidden="1">TODOS!$DR$2:$DR$7566</definedName>
+    <definedName name="_ECO_RANGE_ID41dc921d633142c88bd1325a06df3729" localSheetId="0" hidden="1">TODOS!$DF$2:$DF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID41edefe9350a40b286fe7531f90d4fae" localSheetId="0" hidden="1">TODOS!$O$2:$O$7566</definedName>
+    <definedName name="_ECO_RANGE_ID432f7f2e4f4e4d9daf818e06ed9949d8" localSheetId="0" hidden="1">TODOS!$DA$2:$DA$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4345b35161184e1dbec8fb51e04906ff" localSheetId="0" hidden="1">TODOS!$HA$2:$HA$7566</definedName>
+    <definedName name="_ECO_RANGE_ID43a0114e3cfe4f5e8dbf4d9b887497eb" localSheetId="0" hidden="1">TODOS!$FP$2:$FP$7566</definedName>
+    <definedName name="_ECO_RANGE_ID45f6f2e0b1e741cc96dae5044c7c3116" localSheetId="0" hidden="1">TODOS!$FZ$2:$FZ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4844d6667ffd41f0ae93f1874ac00e33" localSheetId="0" hidden="1">TODOS!$DO$2:$DO$7566</definedName>
+    <definedName name="_ECO_RANGE_ID484b8056b7974e658a4a0768fe5dd568" localSheetId="0" hidden="1">TODOS!$EH$2:$EH$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4a9d2717b7ae4b249d5dfd220f50cb32" localSheetId="0" hidden="1">TODOS!$ER$2:$ER$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4b9c6011758d4d97a0795a2269689b39" localSheetId="0" hidden="1">TODOS!$AA$2:$AA$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4c9cb508cf2442b293a298265586f672" localSheetId="0" hidden="1">TODOS!$GV$2:$GV$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4e34b2d52524429fb60db79d9d1ed96a" localSheetId="0" hidden="1">TODOS!$BG$2:$BG$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4ead59d1713c43d78ccf67aeaffa9c8a" localSheetId="0" hidden="1">TODOS!$BR$2:$BR$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4ed75e76c6514f4ea44269b1bce2b919" localSheetId="0" hidden="1">TODOS!$BL$2:$BL$7566</definedName>
+    <definedName name="_ECO_RANGE_ID51065eb20a2e431e8cba1bdc4bfcce5a" localSheetId="0" hidden="1">TODOS!$EI$2:$EI$7566</definedName>
+    <definedName name="_ECO_RANGE_ID51ae314b594647079525479c91aafed2" localSheetId="0" hidden="1">TODOS!$DS$2:$DS$7566</definedName>
+    <definedName name="_ECO_RANGE_ID54262139ec524c1c958af36873387566" localSheetId="0" hidden="1">TODOS!$AX$2:$AX$7566</definedName>
+    <definedName name="_ECO_RANGE_ID54a3f70f135b4bdfab07aa7cb57c15f8" localSheetId="0" hidden="1">TODOS!$AY$2:$AY$7566</definedName>
+    <definedName name="_ECO_RANGE_ID554edf20a65845d39c285c11997b64aa" localSheetId="0" hidden="1">TODOS!$HK$2:$HK$7566</definedName>
+    <definedName name="_ECO_RANGE_ID592835f63311464295369a5f161260a8" localSheetId="0" hidden="1">TODOS!$BD$2:$BD$7566</definedName>
+    <definedName name="_ECO_RANGE_ID5a2f5f42d42245fb862f32d789be0711" localSheetId="0" hidden="1">TODOS!$BI$2:$BI$7566</definedName>
+    <definedName name="_ECO_RANGE_ID5b043b148aff4009a9da7adee5367a3d" localSheetId="0" hidden="1">TODOS!$AV$2:$AV$7566</definedName>
+    <definedName name="_ECO_RANGE_ID5c61ff28837a44a0b7df50766e92dc17" localSheetId="0" hidden="1">TODOS!$AN$2:$AN$7566</definedName>
+    <definedName name="_ECO_RANGE_ID5e2fb9965a76401a8b0f45937209d9ca" localSheetId="0" hidden="1">TODOS!$ES$2:$ES$7566</definedName>
+    <definedName name="_ECO_RANGE_ID603eaae416264e9cb98d2373156f10cf" localSheetId="0" hidden="1">TODOS!$CM$2:$CM$7566</definedName>
+    <definedName name="_ECO_RANGE_ID60793139b0e1402a83b349f1bcdb5fbc" localSheetId="0" hidden="1">TODOS!$DE$2:$DE$7566</definedName>
+    <definedName name="_ECO_RANGE_ID627337d41f0443c6b0895a922e403557" localSheetId="0" hidden="1">TODOS!$FM$2:$FM$7566</definedName>
+    <definedName name="_ECO_RANGE_ID62efdfcfbff9464e930a651cf654ceff" localSheetId="0" hidden="1">TODOS!$GO$2:$GO$7566</definedName>
+    <definedName name="_ECO_RANGE_ID651ae61b442d4e03a22c670c91602d83" localSheetId="0" hidden="1">TODOS!$GB$2:$GB$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6562434eb3c6413e8c9ff9e4753133cb" localSheetId="0" hidden="1">TODOS!$FB$2:$FB$7566</definedName>
+    <definedName name="_ECO_RANGE_ID67212cc271df461d8d81a10b8cc597cc" localSheetId="0" hidden="1">TODOS!$AM$2:$AM$7566</definedName>
+    <definedName name="_ECO_RANGE_ID68e268d17d44407e8921ce8540e2a481" localSheetId="0" hidden="1">TODOS!$DL$2:$DL$7566</definedName>
+    <definedName name="_ECO_RANGE_ID690a62d0b5914188a20b16409ef675be" localSheetId="0" hidden="1">TODOS!$DT$2:$DT$7566</definedName>
+    <definedName name="_ECO_RANGE_ID69159bc17c7f42369b7f8bdcf515cf7d" localSheetId="0" hidden="1">TODOS!$GU$2:$GU$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6a411db7c7fd44d6bebc989d2254d680" localSheetId="0" hidden="1">TODOS!$FN$2:$FN$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6ad2d51efa32453b801abbefdb0c88cb" localSheetId="0" hidden="1">TODOS!$FH$2:$FH$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6bae73e3dc404330ad6077a8215f1220" localSheetId="0" hidden="1">TODOS!$GJ$2:$GJ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6bc504a6be1b4a2e99636a975dc80fc2" localSheetId="0" hidden="1">TODOS!$GX$2:$GX$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6d3148c1caf04405ad0b1afdd3621fc8" localSheetId="0" hidden="1">TODOS!$BS$2:$BS$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6f199c85f0b04e2da178ed1e2f39bbec" localSheetId="0" hidden="1">TODOS!$EM$2:$EM$7566</definedName>
+    <definedName name="_ECO_RANGE_ID701556830d1b440e86e742595905c54f" localSheetId="0" hidden="1">TODOS!$AJ$2:$AJ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7094f046af234b44bbb3ebbcd2dbdf5a" localSheetId="0" hidden="1">TODOS!$FD$2:$FD$7566</definedName>
+    <definedName name="_ECO_RANGE_ID713138a30eed4d659abab49e6667377b" localSheetId="0" hidden="1">TODOS!$BC$2:$BC$7566</definedName>
+    <definedName name="_ECO_RANGE_ID725ab810687944c4af55ecfd921aa339" localSheetId="0" hidden="1">TODOS!$DQ$2:$DQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7441e913ffda462d9fd468c56365c424" localSheetId="0" hidden="1">TODOS!$EY$2:$EY$7566</definedName>
+    <definedName name="_ECO_RANGE_ID74cb313d3ef341309f1cc4c1df1d3018" localSheetId="0" hidden="1">TODOS!$AB$2:$AB$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7526bca0dfe8447896ed498cfef665a3" localSheetId="0" hidden="1">TODOS!$AK$2:$AK$7566</definedName>
+    <definedName name="_ECO_RANGE_ID77365a92ca3842d2b276843bac173b11" localSheetId="0" hidden="1">TODOS!$DY$2:$DY$7566</definedName>
+    <definedName name="_ECO_RANGE_ID77ef65381b9c4ad1bacf1597cbcc2b55" localSheetId="0" hidden="1">TODOS!$Q$2:$Q$7566</definedName>
+    <definedName name="_ECO_RANGE_ID78ae8925671e42ac9006488b47cfb75d" localSheetId="0" hidden="1">TODOS!$EV$2:$EV$7566</definedName>
+    <definedName name="_ECO_RANGE_ID790799f1f53048b693c90b4115a5a3a4" localSheetId="0" hidden="1">TODOS!$HB$2:$HB$7566</definedName>
+    <definedName name="_ECO_RANGE_ID79b3f57f60cb49a385163b4006b66e8b" localSheetId="0" hidden="1">TODOS!$AO$2:$AO$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7e3aed1f73524a069b3be19aba7594e4" localSheetId="0" hidden="1">TODOS!$CQ$2:$CQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7ebaeee56b634b81b29f3e1a012e6792" localSheetId="0" hidden="1">TODOS!$AZ$2:$AZ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID82902e00e5054f38aa319ae4afb5ffc7" localSheetId="0" hidden="1">TODOS!$AC$2:$AC$7566</definedName>
+    <definedName name="_ECO_RANGE_ID844a45ed08614d58b661a721706184f4" localSheetId="0" hidden="1">TODOS!$DP$2:$DP$7566</definedName>
+    <definedName name="_ECO_RANGE_ID85ac8fe58886443ea9f2d63792a4f5ca" localSheetId="0" hidden="1">TODOS!$BH$2:$BH$7566</definedName>
+    <definedName name="_ECO_RANGE_ID85d30215d5a24d5c8abcdfa758af952f" localSheetId="0" hidden="1">TODOS!$HF$2:$HF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8864b0e9df5746868205f6bafb6c8543" localSheetId="0" hidden="1">TODOS!$CD$2:$CD$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8910c6a55cef434d9a60f74958e9ef5c" localSheetId="0" hidden="1">TODOS!$GQ$2:$GQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8a5565c154c34a4783d7571d679c73cd" localSheetId="0" hidden="1">TODOS!$GL$2:$GL$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8aa777fec7944463b4e76935027cb364" localSheetId="0" hidden="1">TODOS!$HD$2:$HD$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8c632491b6e240e5ac7a66f5d622a808" localSheetId="0" hidden="1">TODOS!$CB$2:$CB$7566</definedName>
+    <definedName name="_ECO_RANGE_ID90ed721dc3ad456db26d752c52540b42" localSheetId="0" hidden="1">TODOS!$A$2:$B$7566</definedName>
+    <definedName name="_ECO_RANGE_ID91836f56e95d484cb407688c92e9891d" localSheetId="0" hidden="1">TODOS!$EA$2:$EA$7566</definedName>
+    <definedName name="_ECO_RANGE_ID925ac7d2190e4a7ea3d350e459437a72" localSheetId="0" hidden="1">TODOS!$EG$2:$EG$7566</definedName>
+    <definedName name="_ECO_RANGE_ID93e0fc613187405ebf776f35c5863c4a" localSheetId="0" hidden="1">TODOS!$F$2:$F$7566</definedName>
+    <definedName name="_ECO_RANGE_ID95a46f30068a48d99d8e6ef2be4b97e1" localSheetId="0" hidden="1">TODOS!$GR$2:$GR$7566</definedName>
+    <definedName name="_ECO_RANGE_ID95a6b022eddd4ef4a1fa6a1f0b372683" localSheetId="0" hidden="1">TODOS!$DX$2:$DX$7566</definedName>
+    <definedName name="_ECO_RANGE_ID95b947fd0d7c4fafa6c791cc3be317c9" localSheetId="0" hidden="1">TODOS!$FT$2:$FT$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9693443037914e67b8add37d1636c287" localSheetId="0" hidden="1">TODOS!$CC$2:$CC$7566</definedName>
+    <definedName name="_ECO_RANGE_ID96c392bcfc57430e89a618432a8a94d9" localSheetId="0" hidden="1">TODOS!$FS$2:$FS$7566</definedName>
+    <definedName name="_ECO_RANGE_ID983fb1cc49524e5fabfd6449701d7eaf" localSheetId="0" hidden="1">TODOS!$DG$2:$DG$7566</definedName>
+    <definedName name="_ECO_RANGE_ID99bf9e8d2fc14ee3b4acc97de2330172" localSheetId="0" hidden="1">TODOS!$CI$2:$CI$7566</definedName>
+    <definedName name="_ECO_RANGE_ID99e0dc0c12bc4e02a596f71eed848c89" localSheetId="0" hidden="1">TODOS!$EX$2:$EX$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9a3bfa043627460197e7f08beac8d821" localSheetId="0" hidden="1">TODOS!$CW$2:$CW$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9a67e5c1ee1846c194f4c65db5a67fcf" localSheetId="0" hidden="1">TODOS!$Z$2:$Z$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9a7ede22616a4e79b0756c7db2fc9cc0" localSheetId="0" hidden="1">TODOS!$BM$2:$BM$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9d47efca36de4c4684e3c702653388f1" localSheetId="0" hidden="1">TODOS!$GK$2:$GK$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9d9e90e039fa402f9c047c611d3dd4e9" localSheetId="0" hidden="1">TODOS!$EB$2:$EB$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa0ded0465dda49d3a6290d49b0b6fab7" localSheetId="0" hidden="1">TODOS!$FJ$2:$FJ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa0ee69753bbb49969eaa479ec21d397c" localSheetId="0" hidden="1">TODOS!$AS$2:$AS$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa13fa3f3907d42f48a0b18752bea16e1" localSheetId="0" hidden="1">TODOS!$AL$2:$AL$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa1b767500c3a4cd0b787bdc2dfbed629" localSheetId="0" hidden="1">TODOS!$BA$2:$BA$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa29d3e1afb0f47879f50517a604cd367" localSheetId="0" hidden="1">TODOS!$BU$2:$BU$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa330cb2993184aefbd31925e1b82e974" localSheetId="0" hidden="1">TODOS!$BY$2:$BY$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa44cc9ca05ba49a2bebba13e33525845" localSheetId="0" hidden="1">TODOS!$AW$2:$AW$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa47632607c444542ac7bcff6c520df0b" localSheetId="0" hidden="1">TODOS!$HJ$2:$HJ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa53d9b835cbd4963aef494f41f0da128" localSheetId="0" hidden="1">TODOS!$CV$2:$CV$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa6368418ea16468293c46ba83f1a3acf" localSheetId="0" hidden="1">TODOS!$AQ$2:$AQ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa6ff9ffed99a400da176a8dcd1ed8e56" localSheetId="0" hidden="1">TODOS!$FW$2:$FW$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa744c39e303441128b7756f0a81123eb" localSheetId="0" hidden="1">TODOS!$FE$2:$FE$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa8195033192543f1ae12eef286dcf5e8" localSheetId="0" hidden="1">TODOS!$B$1</definedName>
+    <definedName name="_ECO_RANGE_IDa9bfcc4633d84c429a66a4960feafef1" localSheetId="0" hidden="1">TODOS!$AI$2:$AI$7566</definedName>
+    <definedName name="_ECO_RANGE_IDab8687e9cff74e549ce76e8a647df83f" localSheetId="0" hidden="1">TODOS!$CK$2:$CK$7566</definedName>
+    <definedName name="_ECO_RANGE_IDae5f7b5e8fa44e0eb74131350839c779" localSheetId="0" hidden="1">TODOS!$GF$2:$GF$7566</definedName>
+    <definedName name="_ECO_RANGE_IDaf8ae7b8837c4c15b4cc27767892f5e3" localSheetId="0" hidden="1">TODOS!$T$2:$T$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb1f7b81dc91c452dab34156c56981bef" localSheetId="0" hidden="1">TODOS!$HH$2:$HH$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb22dbb894b9c43edae227b3848198183" localSheetId="0" hidden="1">TODOS!$GD$2:$GD$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb4bc9897daa64d49995751bc38af8bef" localSheetId="0" hidden="1">TODOS!$DH$2:$DH$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb535c023370a47cca47c6032cf5a2978" localSheetId="0" hidden="1">TODOS!$GW$2:$GW$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb5df46eb5bf843fa862f8c2d3063713b" localSheetId="0" hidden="1">TODOS!$GG$2:$GG$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb5e9416f7c2f47f7aba3fef943ec3eef" localSheetId="0" hidden="1">TODOS!$GS$2:$GS$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb6f63f10248e4e2e88a8160adf80d98d" localSheetId="0" hidden="1">TODOS!$BN$2:$BN$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb7df4420234f4bacb0af571600253c66" localSheetId="0" hidden="1">TODOS!$BE$2:$BE$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb88b798239f640a2a612b89de21b0afb" localSheetId="0" hidden="1">TODOS!$CX$2:$CX$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbe54a1c869b744bc9d625027e7bfd55e" localSheetId="0" hidden="1">TODOS!$CG$2:$CG$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbef99f2fd3b74939a30813116971f698" localSheetId="0" hidden="1">TODOS!$R$2:$R$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbf9ae0cdfb90462bb261afc8cfedd575" localSheetId="0" hidden="1">TODOS!$BX$2:$BX$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc1c8f1a9162445bf897b9dad75cc31b9" localSheetId="0" hidden="1">TODOS!$GA$2:$GA$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc453cbf0f07c4dc6bb17a2b93fbc5d4f" localSheetId="0" hidden="1">TODOS!$CY$2:$CY$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc4e9c95177044c51bb467fe8ec91cb71" localSheetId="0" hidden="1">TODOS!$GE$2:$GE$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc5628f71d46f44ac8931f0d3e0571e9c" localSheetId="0" hidden="1">TODOS!$FX$2:$FX$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc78ce05604f741dfb9d1c5f5f2badb29" localSheetId="0" hidden="1">TODOS!$GC$2:$GC$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc913170ba9f24a5e96faa8cb1a24f1bc" localSheetId="0" hidden="1">TODOS!$FF$2:$FF$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc967d460094b437fbd4cb6a6b6871e68" localSheetId="0" hidden="1">TODOS!$BV$2:$BV$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc9abe320b18e4219aea4e7c743362d49" localSheetId="0" hidden="1">TODOS!$EL$2:$EL$7566</definedName>
+    <definedName name="_ECO_RANGE_IDcb595185b0c449cbbbba7f273b8e69b2" localSheetId="0" hidden="1">TODOS!$CN$2:$CN$7566</definedName>
+    <definedName name="_ECO_RANGE_IDcc1ea1026ea043fba85d4b10f36828f0" localSheetId="0" hidden="1">TODOS!$EU$2:$EU$7566</definedName>
+    <definedName name="_ECO_RANGE_IDcd345902d70940a4964b8a38a1eb94ba" localSheetId="0" hidden="1">TODOS!$FK$2:$FK$7566</definedName>
+    <definedName name="_ECO_RANGE_IDcda3f5646951423e88448d94a912b1b1" localSheetId="0" hidden="1">TODOS!$CA$2:$CA$7566</definedName>
+    <definedName name="_ECO_RANGE_IDcdb64878b62947908694882e91f3682e" localSheetId="0" hidden="1">TODOS!$BP$2:$BP$7566</definedName>
+    <definedName name="_ECO_RANGE_IDcf2265e6bca14cb0b474cb0ad2f7a648" localSheetId="0" hidden="1">TODOS!$DD$2:$DD$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd19327ed430545d8941a31fa7856e17b" localSheetId="0" hidden="1">TODOS!$HC$2:$HC$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd2943817ed554a0498488d69d944be6a" localSheetId="0" hidden="1">TODOS!$FQ$2:$FQ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd3f7c5f122c0444cadedcbe5d1075662" localSheetId="0" hidden="1">TODOS!$DU$2:$DU$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd4e621925ff748e88c6d660b51f5caa2" localSheetId="0" hidden="1">TODOS!$CE$2:$CE$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd52033df3a294f79816165e3ee084001" localSheetId="0" hidden="1">TODOS!$ET$2:$ET$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd70d1a23822240a8b5cf9239543894a5" localSheetId="0" hidden="1">TODOS!$FA$2:$FA$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd885afbec6b64997b839ec42051b462d" localSheetId="0" hidden="1">TODOS!$N$2:$N$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd9406a92046348dfa1051d2071f5956d" localSheetId="0" hidden="1">TODOS!$I$2:$I$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd9edc93c0f474d3384d5f1293a6d40c5" localSheetId="0" hidden="1">TODOS!$CR$2:$CR$7566</definedName>
+    <definedName name="_ECO_RANGE_IDdb2376f2a1454b36b16769a30a927900" localSheetId="0" hidden="1">TODOS!$CS$2:$CS$7566</definedName>
+    <definedName name="_ECO_RANGE_IDdb7863b381c0416e86ae0796ca8f645b" localSheetId="0" hidden="1">TODOS!$GI$2:$GI$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe0083e8e35774363b4f1d26244663427" localSheetId="0" hidden="1">TODOS!$X$2:$X$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe16563bb643b41f0a10ab36f6aea41f3" localSheetId="0" hidden="1">TODOS!$EJ$2:$EJ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe1904e8a04bf4dff923fbd49eb53ce55" localSheetId="0" hidden="1">TODOS!$AP$2:$AP$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe203ca2bfce548d2a91d229f40535074" localSheetId="0" hidden="1">TODOS!$BB$2:$BB$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe499207211654dde88804092e46e5f93" localSheetId="0" hidden="1">TODOS!$AF$2:$AF$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe4ae62359ee147f9a11bd17d1e59e9ef" localSheetId="0" hidden="1">TODOS!$GZ$2:$GZ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe4e040cbc8eb4430a70faabb97ab8f6b" localSheetId="0" hidden="1">TODOS!$P$2:$P$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe6c68e89eeb64e318365e2dbae9956ba" localSheetId="0" hidden="1">TODOS!$BT$2:$BT$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe6d5a6cd7468416fb6e34c8aed4a0587" localSheetId="0" hidden="1">TODOS!$FO$2:$FO$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe6f84562a7ca449e9656eeb0b8cd1ebf" localSheetId="0" hidden="1">TODOS!$L$2:$L$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe7812a721daf408e955f1b44e7ba3e7c" localSheetId="0" hidden="1">TODOS!$EZ$2:$EZ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe89bfb73d7ad48ca9670564cff4568a5" localSheetId="0" hidden="1">TODOS!$BZ$2:$BZ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe8f0f28d576d4ee7809932c01f9496cd" localSheetId="0" hidden="1">TODOS!$AR$2:$AR$7566</definedName>
+    <definedName name="_ECO_RANGE_IDed0867105767478a921647fde905a3f0" localSheetId="0" hidden="1">TODOS!$M$2:$M$7566</definedName>
+    <definedName name="_ECO_RANGE_IDedfe067fbcbb4ee1b80f72ae5c3060e0" localSheetId="0" hidden="1">TODOS!$EO$2:$EO$7566</definedName>
+    <definedName name="_ECO_RANGE_IDeea2fdf7bc8c44858bdf83826090c99d" localSheetId="0" hidden="1">TODOS!$GH$2:$GH$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf03f58727bd4401c9b99ca5b1a144669" localSheetId="0" hidden="1">TODOS!$DZ$2:$DZ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf2600fa7059d4ba9bb069a36775a532d" localSheetId="0" hidden="1">TODOS!$BO$2:$BO$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf2d49209a4a6441db388c25aa619f974" localSheetId="0" hidden="1">TODOS!$DM$2:$DM$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf47b33cc956b4d1a80387dd022576b2b" localSheetId="0" hidden="1">TODOS!$G$2:$G$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf47f01f1966947e2a5865d1c455049ad" localSheetId="0" hidden="1">TODOS!$ED$2:$ED$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf5735a1befde4f92873d5e33b34cd868" localSheetId="0" hidden="1">TODOS!$DI$2:$DI$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf5acb62517eb44fe8cb33e3ed047f967" localSheetId="0" hidden="1">TODOS!$H$2:$H$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf7d3a7dc72e34817bc0eadc4773a5938" localSheetId="0" hidden="1">TODOS!$CL$2:$CL$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf7e97e4b8c864e30b3126083442c5d86" localSheetId="0" hidden="1">TODOS!$CP$2:$CP$7566</definedName>
+    <definedName name="_ECO_RANGE_IDfb0481033cfb4727b62d9dc24a7e3bce" localSheetId="0" hidden="1">TODOS!$AG$2:$AG$7566</definedName>
+    <definedName name="_ECO_RANGE_IDfbf2f5997b5e449bad8a94f02d315ec7" localSheetId="0" hidden="1">TODOS!$HG$2:$HG$7566</definedName>
+    <definedName name="_ECO_RANGE_IDfd0edd99f233416f9d622f3a6bb72bb0" localSheetId="0" hidden="1">TODOS!$U$2:$U$7566</definedName>
+    <definedName name="_ECO_RANGE_IDfe78182e4fa241478c19d00350b224da" localSheetId="0" hidden="1">TODOS!$AD$2:$AD$7566</definedName>
+    <definedName name="_ECO_RANGE_IDfef3d6447c9948f68e04c0c7533a84ae" localSheetId="0" hidden="1">TODOS!$CZ$2:$CZ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDffdb91161c764218bb6decb89f3e21c6" localSheetId="0" hidden="1">TODOS!$E$2:$E$7566</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -976,1532 +976,1524 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2a8f225f-dba5-4ad1-848b-02dafa8a5581</stp>
-        <tr r="AJ1" s="24"/>
+        <stp>19715966-80a1-4132-80f8-f5fd8e2d5869</stp>
+        <tr r="BU1" s="24"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c8d13942-c51e-4678-ae40-2ab2b3d51d9b</stp>
+        <stp>3d4ac632-6f7a-48a5-9d5c-af93227da4e3</stp>
+        <tr r="GY1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2a5b241a-17a5-4e56-8d64-165233abee1f</stp>
+        <tr r="FF1" s="24"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9527b74e-67f6-4821-b735-3843f2ce7805</stp>
+        <tr r="DW1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>876bdd72-7053-492c-9363-50ddd4a4e1ff</stp>
+        <tr r="CL1" s="24"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>0983e538-9694-46b4-8343-86803ebb1b23</stp>
+        <tr r="FG1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>94e39165-c433-42ef-8918-f59d0188919d</stp>
+        <tr r="T1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1f6b64b3-5a50-4e40-add8-387a59a2d7b1</stp>
+        <tr r="AA1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>abd2a500-3c2e-4043-acf1-3f7c34090f31</stp>
+        <tr r="BT1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e09c36c7-a269-402e-906b-21d0258205ba</stp>
+        <tr r="K1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c4144b7b-2f10-4008-9673-e3f1d9c01dc8</stp>
+        <tr r="DY1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ba00cd03-3645-46df-a18f-7af96997c5e5</stp>
+        <tr r="DC1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c11ce8eb-c3b4-4261-8e42-a9f275948fe6</stp>
+        <tr r="CG1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>013a3fce-ddea-43dd-9bbf-e3822f0e4e61</stp>
+        <tr r="BF1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d6818540-d2b6-4c7c-aab3-42b5a304eb2d</stp>
+        <tr r="FE1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8d8fe5e0-c6d3-43a6-b814-b33e52800128</stp>
+        <tr r="BG1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1fe51e62-ff83-4605-a2c2-446787d5c52a</stp>
+        <tr r="EO1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c5e05e04-f719-44d6-81de-9607ec4ae794</stp>
+        <tr r="DU1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c922a957-ea96-4058-b2fb-8087b4ee79de</stp>
+        <tr r="DJ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>77695286-3ecd-46f5-9ab6-be22416b0338</stp>
+        <tr r="BP1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>59d5c63f-aeff-4969-b239-88a69c001923</stp>
+        <tr r="FC1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4bec7203-02d3-4eca-a7a1-60d785d8ec9c</stp>
+        <tr r="HG1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fba277a3-29ca-46fa-a902-1be991659c5c</stp>
+        <tr r="FM1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b133fdbb-dd95-42fb-a1a3-2d8bf680dfb7</stp>
         <tr r="CK1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ac16f8fc-e312-4a27-bd91-6f8ae887e66d</stp>
-        <tr r="BM1" s="24"/>
+        <stp>21b56d9b-4ce9-405f-8d7e-37f4328d424a</stp>
+        <tr r="AL1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a51daf49-a8d9-4d23-a080-7ad37545941a</stp>
+        <stp>27bd0552-2c24-40be-a6ad-4b1bdd6a7589</stp>
+        <tr r="CW1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>62339f60-15c3-41ab-bdac-32b61cd77063</stp>
+        <tr r="GO1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>595895be-15a9-4ec5-b1e1-c750b9b17dec</stp>
+        <tr r="CN1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4e359be0-dfb5-4cf9-87b0-256fa91923b2</stp>
+        <tr r="AY1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e87d492f-8938-4c29-b4f2-5ba0c44f40c6</stp>
+        <tr r="Q1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5a6a8c10-3a8d-4865-9a17-6486ddcdce37</stp>
+        <tr r="BB1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>db9352c5-31e6-43ec-869f-b662c74ad802</stp>
+        <tr r="DD1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>82fbcccb-0878-488b-be5f-54a283616109</stp>
+        <tr r="GB1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5e408d93-e4fe-42ec-91fc-0d7d0f1e5c46</stp>
+        <tr r="M1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f31a802d-dacf-430e-aecd-bd1d40f2f580</stp>
+        <tr r="DV1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d4b9ae8f-5dfe-4cd0-9e0d-efdd53b3f12f</stp>
+        <tr r="FQ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>73eb0c7d-12bf-4400-a02a-9ca65a9afa4e</stp>
+        <tr r="DM1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e0233a5e-1e14-46e2-a9ce-8ba412333a72</stp>
+        <tr r="EC1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f04c30c5-b10b-46e4-a6e2-23364c03cc0f</stp>
+        <tr r="HH1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9d5a6213-0ad6-40fb-83af-4353aaa97733</stp>
+        <tr r="GP1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6ada4453-20fd-4e19-8b79-9940bbfb2316</stp>
+        <tr r="GC1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>84434de2-4209-48d7-9d24-22aedb9aa079</stp>
+        <tr r="FB1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b811accb-807a-47fd-a5be-428fa530ac43</stp>
+        <tr r="G1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f0e5fac2-ad83-4370-836b-eb90be14f04e</stp>
+        <tr r="GZ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>649739d2-a683-43f6-a395-86445d4f30cd</stp>
+        <tr r="AN1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b66161e8-8d00-458d-8e02-dbd1186c30c0</stp>
+        <tr r="GE1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ef3a3c0d-e8f0-44a3-ba01-4662603c6dd7</stp>
+        <tr r="ES1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>64567af5-f68c-4079-ac94-4427e3d2d5c2</stp>
+        <tr r="GA1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d30c5c40-d3aa-498e-b9de-948dbfb19e13</stp>
+        <tr r="GS1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>67cdfc27-95bd-41dc-a5f9-4bd3d973d177</stp>
+        <tr r="F1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4722f7bb-8b18-44af-b9c6-f7c578f2801f</stp>
+        <tr r="CD1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a3e5252a-0e42-454c-9cf8-c9b861bee9a2</stp>
+        <tr r="FJ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>eeb3be7d-79e1-45f4-9916-474684f9b3ab</stp>
+        <tr r="S1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b4588a03-ad9b-4011-af14-b61d6e2c0e89</stp>
+        <tr r="HC1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>31bef6d8-7f3b-4ab7-8f29-019a337c158b</stp>
+        <tr r="EU1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1abc1c34-82c4-43ec-9af6-9808bafbadf3</stp>
+        <tr r="FX1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4f7d54fa-5ab9-4f24-88b7-1262b09f901c</stp>
+        <tr r="DH1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5583e1f7-fd3c-4694-a87e-b988cc8098c8</stp>
+        <tr r="AH1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>87cfab4e-cb3a-4171-b1bf-9c4c1289174c</stp>
+        <tr r="GW1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f50e8f0f-9ce6-4132-ad93-8afce60df5c1</stp>
+        <tr r="DF1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>23b5e912-b504-46bd-9c4b-00a8779323f8</stp>
+        <tr r="DK1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d5740353-a59b-40f1-afa9-9abbec9369b7</stp>
+        <tr r="HJ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>68c7e7e3-578e-4bac-8401-a2bd63bcad40</stp>
+        <tr r="C1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>215281b0-f6b0-459b-96ee-9032a8ddde1a</stp>
+        <tr r="DB1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>132b008c-48a1-4848-b415-e46c715377f3</stp>
+        <tr r="AF1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cd62b8a6-e01e-47c4-9b7f-20d72db9bbde</stp>
+        <tr r="FZ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e5b1f1d6-68f2-4873-899a-32e87e74ab54</stp>
+        <tr r="AP1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c511dc28-64a2-4a59-94dd-e5b25a7ffd3a</stp>
+        <tr r="AG1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>70627861-f990-49d6-ae8c-c135d92aee04</stp>
+        <tr r="AB1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a9f927b1-f274-47a6-bcfa-2cf912cf2d95</stp>
+        <tr r="EW1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>691bab43-65a4-4c02-8446-c02487a2ea8e</stp>
+        <tr r="AC1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1ae8e971-1f88-4787-ad41-366935f44d45</stp>
+        <tr r="DS1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>378968be-5cd8-41a4-bad4-056a9d7cc54b</stp>
+        <tr r="CJ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>125d083e-bcef-41b4-889a-0c3f310e6970</stp>
+        <tr r="X1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8290e3ce-903b-4b48-b712-636848c4049e</stp>
+        <tr r="AS1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1f5af622-b918-4934-b908-ab200807cb0a</stp>
+        <tr r="FV1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2399f1e7-098e-4b61-8c8f-eb944577fb8b</stp>
+        <tr r="CC1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>34aa9855-4136-4a07-888c-5c68ec8599f1</stp>
+        <tr r="AI1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7a83ac3e-44df-41bb-a934-fa5b10e11847</stp>
+        <tr r="FH1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>42fbe2be-e774-4676-bc80-56a07cad2197</stp>
+        <tr r="CS1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0f53da93-a7c3-4838-9bfa-347b77ff2470</stp>
+        <tr r="FO1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b76f427a-c550-4052-a52a-f8ae1a1c6049</stp>
+        <tr r="BJ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d7ec87fe-8581-4f41-86ff-bc5bf5132634</stp>
+        <tr r="E1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>18c6733f-cc8f-41b2-abf2-420a04348286</stp>
+        <tr r="BR1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4d40180e-ef84-4a76-b619-5a1484be2c6f</stp>
+        <tr r="FS1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9216d69a-1a68-463a-958e-44d3dae0912c</stp>
+        <tr r="Z1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a43ca1e6-bd30-4d6c-81ae-c05e6ef4d80f</stp>
+        <tr r="HK1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ce06d364-aab2-47c0-b850-e383981fd152</stp>
+        <tr r="I1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>81d2eded-e640-4def-8a18-01655f2e18de</stp>
+        <tr r="EN1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cb3f73c5-52c9-45bf-a0db-987ad2fcfd34</stp>
+        <tr r="DI1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cf0dfd0d-4304-47e9-aaf0-52904e032717</stp>
+        <tr r="EZ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>21a98b87-9847-4fd0-b972-b5f6e5d44de6</stp>
+        <tr r="L1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bd30f836-6bc0-45b7-b3c4-02c67a095d0d</stp>
+        <tr r="GV1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d9fb1ff8-730c-44c7-8988-492bef4c21c3</stp>
+        <tr r="AE1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3e2a963b-44a8-4a38-9714-e00f5cdc540d</stp>
+        <tr r="BV1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>58da3e92-c179-4995-8b0a-03f007bb8574</stp>
+        <tr r="CO1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>70223738-2aef-4ba8-b7ce-0ef4dced8b4d</stp>
+        <tr r="GQ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>85d58399-9b2d-4dd4-8370-471a3588845e</stp>
+        <tr r="GD1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1460a953-1397-43e1-b64a-cafbdfbbe45c</stp>
+        <tr r="GF1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5ca9447a-a082-4eb9-a9bb-eabf174e117b</stp>
+        <tr r="HA1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d9d83537-08c2-4e8d-9959-a69d4c956234</stp>
+        <tr r="CP1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b0655037-9622-4bfd-b0bb-f8bbf480386c</stp>
+        <tr r="J1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0d3f0db2-9685-4828-bfbb-c0c979d62a07</stp>
+        <tr r="W1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>36f386d9-d7b2-4c9e-be09-e0475230889a</stp>
+        <tr r="FR1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a1793b29-702a-4cf6-8fc4-f800a6668413</stp>
+        <tr r="R1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>074304eb-f658-46aa-9650-74bbd7bdb9cd</stp>
+        <tr r="FP1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ef4837f3-89a2-4f40-be66-6419fc54539b</stp>
+        <tr r="H1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>004afd31-1893-4932-964b-b6da58d64f97</stp>
+        <tr r="DE1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>17284795-296c-4a68-b720-01217dd65f06</stp>
+        <tr r="HI1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6710afd9-e8d2-4f99-8537-48bd9df326fb</stp>
+        <tr r="EI1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d3e578e3-cc34-43e8-9c09-85f30bc22cc5</stp>
+        <tr r="CE1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>010edcac-9eb6-464c-bedf-c7fca8b127f2</stp>
+        <tr r="FI1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2a575cf4-6c2a-46ff-8bef-f22ad550edd6</stp>
+        <tr r="EG1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>976279c1-f953-4243-a52d-01bf84c7c8c3</stp>
+        <tr r="EM1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>944596a8-96b7-4bd5-94b2-dd9938724d29</stp>
+        <tr r="GU1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ed393f4f-7948-4fe0-afcc-f0dbd6bbc5de</stp>
+        <tr r="DL1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fa2e5dc2-d8a3-4936-9d07-aa1ddb3861c0</stp>
+        <tr r="HB1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>09b8f42a-ed14-4dfa-b4fb-98c10db91ff1</stp>
         <tr r="BX1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>103be90f-6232-4368-9f8c-1c22ef7cac96</stp>
-        <tr r="BU1" s="24"/>
+        <stp>fd846bf1-6350-4466-8c80-aa8ae9b56333</stp>
+        <tr r="CT1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1fd13b7e-c06b-4360-8a53-1597a70ee520</stp>
+        <tr r="EX1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>97ba8b83-fd88-48f8-b5cb-00cf8c20cbde</stp>
-        <tr r="BA1" s="24"/>
+        <stp>4afa2de6-a81f-4301-bfe0-0fb9a12f1223</stp>
+        <tr r="DA1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>fc36c7ce-b9dd-4179-83db-ba07cdb967a0</stp>
-        <tr r="HH1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>623af048-9cef-4bd5-aaf8-22dae67d2543</stp>
-        <tr r="ED1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c3a4ce73-8d96-4951-ba2d-649ba4f947f1</stp>
-        <tr r="K1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8080a89e-7b25-4740-9c2c-d6d01b4f3356</stp>
-        <tr r="AI1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5d42d316-3774-4a01-9635-44f521de69e1</stp>
-        <tr r="CF1" s="24"/>
+        <stp>c0d5916d-02a3-415d-a033-162b2ec1cc87</stp>
+        <tr r="Y1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>82341af0-3c1a-42ff-a3cb-b90d7e53cc29</stp>
-        <tr r="BT1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ae8ac3da-13f0-4ef8-ba54-6db3a6ffabf8</stp>
-        <tr r="N1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9d8acb86-1913-4fb4-97d2-f74a32e63911</stp>
-        <tr r="CD1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a7e018fe-7946-4939-838a-4d6e4dbdfb05</stp>
-        <tr r="GW1" s="24"/>
+        <stp>420fec89-362c-4197-b662-04563184e086</stp>
+        <tr r="A1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>748a7ef2-a636-4d7c-a428-c4ef4895d687</stp>
-        <tr r="HF1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2313b38a-e810-4ae9-bfc6-292d89445d6a</stp>
-        <tr r="FI1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cca06758-a109-4b0b-b280-432fe19a410b</stp>
-        <tr r="M1" s="24"/>
+        <stp>501be9f7-2fbf-4b0a-b889-d4e11fad1f32</stp>
+        <tr r="BK1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9b8d3ffe-aa8d-4b79-8805-4ab6a3a91bb0</stp>
-        <tr r="GH1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>08e8702f-5ce0-4a1f-93a2-d6ef9266eb2c</stp>
-        <tr r="EI1" s="24"/>
+        <stp>f1b8079b-8abf-4bd2-879e-54c363507d5e</stp>
+        <tr r="CQ1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d63da90e-b3cf-4319-8e93-e4c014cc21b5</stp>
-        <tr r="BP1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9ae68edb-4376-408d-a79e-519fc337a3b2</stp>
-        <tr r="EN1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3fd3f3d9-969a-4d73-811b-2ae6114dcb15</stp>
-        <tr r="AP1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e1c94f20-9354-4b22-99fd-358d1aedc34a</stp>
-        <tr r="CT1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>506f5788-f2d4-4709-801d-c73f4b830a4a</stp>
-        <tr r="BR1" s="24"/>
+        <stp>8d11215e-4ca9-434d-9809-de81dbc6bd96</stp>
+        <tr r="CB1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0adfa889-63d1-423d-b9b5-0db95a3f1152</stp>
-        <tr r="FN1" s="24"/>
+        <stp>1219e317-2d81-4589-9be9-260257e2484d</stp>
+        <tr r="AX1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c3858727-0d60-4fea-80d8-69a06d76d19a</stp>
-        <tr r="CC1" s="24"/>
+        <stp>9542e48d-2620-48be-b805-01a7b6d13784</stp>
+        <tr r="BZ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>43fd532f-1285-40b4-afdc-923f97095219</stp>
+        <tr r="EA1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>e38b9057-877f-41e8-a04c-d100d953dbec</stp>
-        <tr r="GC1" s="24"/>
+        <stp>2e29a3d0-331d-4bf1-a907-2a1931836b18</stp>
+        <tr r="CI1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f40656db-2c73-4eed-890a-35e375a9c9c8</stp>
-        <tr r="D1" s="24"/>
+        <stp>7a849921-81a0-42ed-93db-beeb10026ce8</stp>
+        <tr r="CH1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>36b3154d-9aca-42ca-a7b6-d5be07baef28</stp>
-        <tr r="GA1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cb69e2b7-0984-4c97-a790-73e6c45557f3</stp>
-        <tr r="CH1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9bb8d3eb-9d02-462b-baab-196b157b19da</stp>
-        <tr r="FJ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8ed287be-ba8f-4b02-80e6-801c204af93b</stp>
-        <tr r="FR1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>99f9559f-1537-4991-9753-ad521a842b30</stp>
-        <tr r="CI1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6f8d8af1-9fe1-4942-a262-679d9be8e17b</stp>
-        <tr r="FM1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>190d8738-c481-4d68-949b-826098b629c7</stp>
-        <tr r="CS1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>525edd95-dceb-46c2-903e-84ef8a3bc9c6</stp>
-        <tr r="HI1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1cd5c971-39f7-4a66-b4ce-df0a7aadcdf4</stp>
-        <tr r="AB1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>599c2f53-6452-46d5-b866-b4c10c3cfbd4</stp>
-        <tr r="DG1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7617cf45-c81f-404b-b327-6039a2ea3134</stp>
-        <tr r="CE1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e984b33b-1a6a-44fa-8fd6-e38ae9b7bdc6</stp>
-        <tr r="GS1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c15014cb-684b-4cd7-aa75-a0ea258a5fa3</stp>
-        <tr r="DI1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>183c0571-5f3a-492e-9818-7f20b93b4cc9</stp>
-        <tr r="F1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a3df7f1c-261d-4897-af66-21b6ac0c5d34</stp>
-        <tr r="FY1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a87895f5-e428-4f48-8e40-16d0bccfaab3</stp>
-        <tr r="CR1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cc7a771f-e3b6-4491-8873-241760b0ccf9</stp>
-        <tr r="FK1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>742cbf3b-8c52-4379-902a-6a8e67f19f6b</stp>
-        <tr r="A1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f289c7fc-085a-4b3f-adfa-6a4a161133da</stp>
-        <tr r="GK1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>77a45c87-7b5a-4f12-a279-b3b0b3f36792</stp>
-        <tr r="GY1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8e61765a-7ac5-4d4c-90dc-679f84c301dd</stp>
-        <tr r="AA1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7ba5f46f-aae5-4ba6-91a5-0090d0c5c1a2</stp>
-        <tr r="BJ1" s="24"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>05813cd8-1f7a-434e-8d32-f4672f0f4274</stp>
-        <tr r="FL1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2fbe1c8e-12e5-435a-8563-425174ed1407</stp>
-        <tr r="AR1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b05040db-3508-4af6-aeea-15e996e87245</stp>
-        <tr r="DO1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>59e3f950-3188-4c35-a430-fd1540863342</stp>
-        <tr r="CL1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3367ea77-53de-4ebf-be34-e7ec0dac437e</stp>
-        <tr r="GG1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>da4892e9-e6bc-4435-8007-13f5904b6b38</stp>
-        <tr r="EE1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0e24fdcf-ee24-4fea-b315-2ea81c81ea4f</stp>
-        <tr r="I1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7b93a031-2f52-4dbc-9c78-fbdfb18514fe</stp>
-        <tr r="DC1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8d391bd6-fbf3-476f-a345-4e7720e34446</stp>
-        <tr r="GU1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ba32260a-57a8-4adf-847f-6b60160ac438</stp>
-        <tr r="AK1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>342e56c7-995b-47b9-bc6c-813680a8bf98</stp>
-        <tr r="EZ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a937581c-f75d-4f72-980f-b4c472fd306b</stp>
-        <tr r="GX1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0e69c1a3-549a-44d0-a188-974c582c85e7</stp>
-        <tr r="W1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a3c7ac90-f32f-4d74-880e-3d85936e4669</stp>
-        <tr r="DD1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4eb85cf8-fa86-49d1-91d4-d1ce96f8faa7</stp>
+        <stp>513dd601-3231-4153-a5df-9b43867c1a8f</stp>
         <tr r="ET1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f2751c3c-1e01-4dd2-b435-f4b1f4c002c6</stp>
-        <tr r="S1" s="24"/>
+        <stp>94e7a9b5-132b-4301-b4db-18e855f99282</stp>
+        <tr r="FT1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7aadecfe-dfcd-4194-93cb-d2bb4ff0060f</stp>
-        <tr r="DA1" s="24"/>
+        <stp>18d6e813-4acb-4656-98a2-8ace4c145756</stp>
+        <tr r="DG1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c6b1e7e9-c021-481e-b550-4e65f57944c4</stp>
+        <tr r="AJ1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0ae2beb0-469c-4374-890c-611e12ab5d27</stp>
+        <stp>2d07438c-dff2-462c-a511-537440d6c576</stp>
+        <tr r="AQ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b4b3efab-3800-4106-b8f5-cbccc6fee254</stp>
+        <tr r="BA1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ffb146df-0de5-445f-a2a9-ca8e67bfbf5d</stp>
+        <tr r="AO1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b1523dc7-f3ed-479a-99ca-4ea4c1aed2ea</stp>
+        <tr r="DP1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>20a9d7e1-182f-42fa-9ed4-4c988379a4a0</stp>
+        <tr r="P1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>066d4191-20e5-408e-80fa-ceea2e09cf18</stp>
+        <tr r="BN1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b6535617-2075-4344-9f62-80df928b8bf1</stp>
+        <tr r="DZ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dbb0b206-6ca7-47d9-aa05-16e169a4002a</stp>
+        <tr r="BW1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>23229a8d-b53f-4531-90d3-0467181d598f</stp>
         <tr r="U1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d6244e49-1f35-43dd-8b08-6f22ff9ebebb</stp>
-        <tr r="EP1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>89a3a804-237f-40d1-b547-f989bc77582c</stp>
-        <tr r="GI1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3a21902f-5303-4753-91f5-c300dadb0756</stp>
-        <tr r="GZ1" s="24"/>
+        <stp>a006031d-8f4f-4d67-bcca-3629d117f844</stp>
+        <tr r="CX1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>61a09f6b-7e9a-45ac-9ab3-1e3d25e5be7f</stp>
-        <tr r="H1" s="24"/>
+        <stp>a7e10fb1-e969-40b1-983f-b6a0eac4812f</stp>
+        <tr r="AT1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f09ade10-ac25-4006-ab17-3d6bce8f1ff9</stp>
-        <tr r="AF1" s="24"/>
+        <stp>5dc7f6cb-77d7-4bd8-8d13-a943e5a6d031</stp>
+        <tr r="GG1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d300aeee-7ff1-4459-bfe2-37bfccd9a9ab</stp>
+        <tr r="CV1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>71a8fd80-cd7d-49ab-9cc1-118737876e83</stp>
-        <tr r="HA1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b13dd450-1360-40d3-ae10-c500ef89a186</stp>
-        <tr r="CW1" s="24"/>
+        <stp>31aca74f-e78b-4675-a7cc-4d287353d2cc</stp>
+        <tr r="EK1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d322a8f2-cec4-4b74-bfaa-22b3c9a5ebf5</stp>
-        <tr r="BK1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5f8e1559-2e42-466b-9ef3-2f97857c3bc0</stp>
-        <tr r="HK1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>192f48eb-cb3c-4bd5-857a-fef1f7480f05</stp>
-        <tr r="ES1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e74694df-6630-4d33-853d-33d1e32caaf2</stp>
-        <tr r="FX1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c91981e2-a584-434d-80bb-a9f01c700aa0</stp>
-        <tr r="CQ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b1d99afb-386b-4984-93b9-0cf0e39d8004</stp>
-        <tr r="O1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8ecd941f-5875-472e-be90-a9152e691162</stp>
-        <tr r="CV1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c1f2a910-81a0-4b56-8e1e-7faa45a6c1e5</stp>
-        <tr r="J1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4c35416f-1e78-4ef0-9b2e-141356bc8617</stp>
+        <stp>7b80fb7b-86ee-4a2a-a5dc-204b59e57e96</stp>
         <tr r="DX1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>8fda48c0-65a1-4f86-8689-87b1b5fad133</stp>
-        <tr r="GJ1" s="24"/>
+        <stp>d5dd77c2-1092-435e-b682-594cc5bd03c0</stp>
+        <tr r="AR1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>aa54052e-2870-4c33-92b7-5515a77a3de7</stp>
+        <tr r="CF1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ece54a92-f1d7-4553-ace3-7f8d4396c626</stp>
+        <tr r="BM1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fa294a19-3ee2-4601-8e3f-9a0c840985cb</stp>
+        <tr r="DT1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6d992280-4080-4b03-9327-1b15fb13f696</stp>
-        <tr r="Z1" s="24"/>
+        <stp>f98cefc6-ddc1-41c5-befb-f690e7b468e7</stp>
+        <tr r="EH1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>66f09215-01aa-4e10-82d7-458254f0b470</stp>
-        <tr r="GF1" s="24"/>
+        <stp>9ea62d65-7066-4d7e-89a7-95329b099432</stp>
+        <tr r="FK1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d78eae95-9732-4589-88aa-3765ae7c84c1</stp>
-        <tr r="FS1" s="24"/>
+        <stp>1f979f0b-b536-41f3-b3f5-6da60ed0ed72</stp>
+        <tr r="HD1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>04a9c768-764e-4c7b-9cb1-5362f1e07d80</stp>
+        <tr r="GM1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>cc7546df-3a81-4312-a3ef-42e120d45fc6</stp>
-        <tr r="AX1" s="24"/>
+        <stp>6e4a8adf-b40a-46ed-8379-6eac43488108</stp>
+        <tr r="CA1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>eb0c1ac9-40be-4b26-9288-aea081401894</stp>
-        <tr r="GV1" s="24"/>
+        <stp>9befbb87-da20-4825-861e-52b0a563a51f</stp>
+        <tr r="V1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>82dfffa6-bb63-4da1-acac-535f122c7512</stp>
+        <tr r="DQ1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>8d92417d-e2a7-4655-afaf-02d25e98df77</stp>
-        <tr r="E1" s="24"/>
+        <stp>9ac0e98b-da82-4c1b-990f-9e923aeb987f</stp>
+        <tr r="ED1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a9731750-5a8b-4f28-8bbb-f5be95d5a44f</stp>
-        <tr r="R1" s="24"/>
+        <stp>34a980b1-f64f-49da-8bb3-6ecc17836a4a</stp>
+        <tr r="EL1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bf87ed07-bddf-46a8-9e1a-4350d8a0b06d</stp>
+        <tr r="EF1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6149824b-7676-4df3-bcca-a19d8a153f36</stp>
+        <tr r="DR1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>741a06ab-c590-498e-bfab-d7c06006301c</stp>
+        <tr r="EV1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>713994d7-381d-4300-bf79-63fb57ddec98</stp>
-        <tr r="EA1" s="24"/>
+        <stp>8b196f63-06fe-4fe2-b9f8-85bfa6a36078</stp>
+        <tr r="BO1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d49df616-aeaf-48fb-b777-fbea9ceeda00</stp>
-        <tr r="FU1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>13f33e6e-aa02-4408-9acb-ca1248336cf1</stp>
-        <tr r="CY1" s="24"/>
+        <stp>e6a9193f-00d0-4b2f-9325-095d52e0f308</stp>
+        <tr r="GH1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>636cc2fb-5b03-4001-a314-1de31162a699</stp>
-        <tr r="CJ1" s="24"/>
+        <stp>cb6595ae-194c-43ca-8479-a406a20c5eba</stp>
+        <tr r="BY1" s="24"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c08cf3e6-250c-4cca-abbe-3a68b2e3564d</stp>
-        <tr r="EU1" s="24"/>
+        <stp>6065be82-3a82-41bd-8610-6ebe52b06736</stp>
+        <tr r="CZ1" s="24"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7b60acfa-d58b-4b3b-a357-c4d1f0f2aa19</stp>
-        <tr r="BZ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>26ba67c1-562c-4c05-b24f-c79581b12d78</stp>
-        <tr r="EY1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>aefdd5eb-5b17-4af3-96fa-4573e7303e5b</stp>
-        <tr r="Q1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>47912630-0f05-4d6e-bac4-5608c046196e</stp>
+        <stp>bb0d656b-7d4f-4376-8005-7fe13ae5b258</stp>
         <tr r="FD1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2293d4d4-31e1-4c83-b133-199d67bf93e6</stp>
-        <tr r="AD1" s="24"/>
+        <stp>d0b082bf-17ff-4741-87cb-a8ed08fec262</stp>
+        <tr r="AW1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6fac370c-352f-48fe-b595-d371ed240aae</stp>
-        <tr r="BW1" s="24"/>
+        <stp>9e1d3032-2d1d-475a-9f02-ab27d231553d</stp>
+        <tr r="GJ1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7932d6ed-6258-45dc-a9c1-2c205efb7713</stp>
-        <tr r="AH1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7b2af85c-b13a-41f0-b9fb-d73d0342fc90</stp>
-        <tr r="EV1" s="24"/>
+        <stp>a79594cb-6c19-4641-9891-26b9c6b34a50</stp>
+        <tr r="FU1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>365e2428-3413-4f88-991a-7c683c87f164</stp>
-        <tr r="AL1" s="24"/>
+        <stp>58141131-5f9d-4655-82a3-d5630930a8c1</stp>
+        <tr r="FN1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a03f92bc-6d37-4b82-a89a-f01ffd89ebad</stp>
-        <tr r="GQ1" s="24"/>
+        <stp>39581947-5ff6-48f2-8ade-f8455f624a7d</stp>
+        <tr r="EJ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>80adcf1d-87b9-4fb2-a85e-619f752f51da</stp>
+        <tr r="GX1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4f4e7f8c-620b-49f0-8995-dc134be6f7cc</stp>
-        <tr r="DZ1" s="24"/>
+        <stp>445756c6-c817-47a5-9dc2-595bdc390176</stp>
+        <tr r="EQ1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>afa028c1-0bbf-4b75-9e2f-51310d869582</stp>
-        <tr r="DY1" s="24"/>
+        <stp>8ede84b2-c911-4edb-879a-8990389e15d0</stp>
+        <tr r="HF1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>78ba8c5b-6443-46dd-89c4-2fe0acc802de</stp>
+        <tr r="AM1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e5032354-d952-4d93-8e3d-f614d0f489ee</stp>
+        <tr r="AZ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>679f6924-e205-4a3b-a217-253ce4cb9d19</stp>
+        <tr r="AK1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3636a897-c16f-4da4-ae1a-8219df58ca3f</stp>
+        <tr r="EP1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>592187bd-8c7a-47b8-b124-02de120c25d4</stp>
-        <tr r="BL1" s="24"/>
+        <stp>837cc437-cc8e-41a9-9dda-4c129cb99d7a</stp>
+        <tr r="GI1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9ac2fddc-06a4-479d-840a-fd4ee9181a2e</stp>
+        <tr r="HE1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6614bce6-3fbd-4268-8e26-5477a3417aa5</stp>
-        <tr r="BF1" s="24"/>
+        <stp>694ce456-74a1-40e7-b7ee-aa79064f6b4d</stp>
+        <tr r="BQ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>07ee1432-4523-41b8-8160-f78dedd76439</stp>
+        <tr r="AD1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b8c213d6-fa8c-4bc7-8b23-2a63f1e71fb9</stp>
+        <tr r="EY1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>40ac25ab-6139-4870-a33c-d7a1e8ff5a01</stp>
+        <tr r="CM1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f963cfb7-5c9b-47fa-9aa5-5c8e51e7128c</stp>
-        <tr r="BB1" s="24"/>
+        <stp>f6da1baf-1b85-4dc9-8a44-10b5145222a9</stp>
+        <tr r="BI1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d7791446-a6db-4de6-ac21-48634c7df7eb</stp>
-        <tr r="EB1" s="24"/>
+        <stp>7a4412d1-bcc6-4452-8439-2c37188e148a</stp>
+        <tr r="AV1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>49b88e08-ce5e-40ac-86f8-55f2b54f00a3</stp>
-        <tr r="DK1" s="24"/>
+        <stp>e81374da-5426-4bbc-aece-2a1021d176bd</stp>
+        <tr r="BL1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1f91fc65-5b98-4171-b4b4-2df6d802f50d</stp>
-        <tr r="DU1" s="24"/>
+        <stp>19770ec9-e841-40b2-a96d-b5c42a3b6601</stp>
+        <tr r="N1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>00ba2509-ed4d-4337-9395-1cba7fd8c4f1</stp>
+        <tr r="BS1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7c6d41fb-25e6-4cca-97c6-c884b5743ec3</stp>
+        <stp>d5235bd1-4843-4598-b8d5-e5e14c009102</stp>
+        <tr r="CU1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3fc19ac8-4bfd-47cc-a22d-fe91cf87a99d</stp>
         <tr r="BH1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>264c222f-19af-488f-82b4-a9c233c61185</stp>
-        <tr r="DB1" s="24"/>
+        <stp>815eeefa-f891-419b-b29d-efc0b2450ee7</stp>
+        <tr r="GL1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7cd6701f-073a-46ed-9e9f-d885a8ac7561</stp>
-        <tr r="EC1" s="24"/>
+        <stp>b036fdcb-70eb-41a5-8fbb-18619cf387c0</stp>
+        <tr r="FA1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ef2331f8-84b3-44c4-9cd4-17195b0c3a22</stp>
-        <tr r="EL1" s="24"/>
+        <stp>ee58be14-df4d-4046-be5e-48038f447a7d</stp>
+        <tr r="EE1" s="24"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>73ce6be3-3b4a-4448-a2f6-55d08d329fba</stp>
-        <tr r="FG1" s="24"/>
+        <stp>b7071d6e-129a-4e57-9cc2-38310ae5d7dc</stp>
+        <tr r="FL1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>670dcb0d-6b9d-4de6-8b10-1e9dc8dd9afd</stp>
+        <tr r="GR1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c9a4c5a6-c7ba-4cec-be14-572f593b48c7</stp>
-        <tr r="BI1" s="24"/>
+        <stp>6bca9397-8a29-4201-a05a-2a102c234776</stp>
+        <tr r="O1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>35b50bc2-745b-48e5-adcd-689c955a30de</stp>
-        <tr r="BC1" s="24"/>
+        <stp>b1f13259-bde8-4522-87fb-6838b43f9a65</stp>
+        <tr r="DO1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f76bab1f-5d88-4dba-a77d-1eaeda5729c3</stp>
-        <tr r="GE1" s="24"/>
+        <stp>1526bd35-0bf5-4bf6-a9db-482730b85bcd</stp>
+        <tr r="CR1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2d19cf5a-1130-4225-8bea-d3c498d67cad</stp>
-        <tr r="FW1" s="24"/>
+        <stp>d7063cdb-ae2b-4e30-ab47-d4bd7e6b69c9</stp>
+        <tr r="ER1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7e634669-b7a0-4d6b-b586-68cdaf550996</stp>
-        <tr r="G1" s="24"/>
+        <stp>4e18f897-b395-4122-b435-9a7d47c2810e</stp>
+        <tr r="GK1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>add6c0ed-f480-47f9-b904-a30c5664a236</stp>
-        <tr r="CB1" s="24"/>
+        <stp>c079eaf7-698d-4c73-95cc-66462979cac6</stp>
+        <tr r="FY1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>50ff162d-4360-43a5-9283-be264de1d25e</stp>
-        <tr r="BO1" s="24"/>
+        <stp>8c125a6b-4c49-4e3f-8231-089893fa61bd</stp>
+        <tr r="GT1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0578b04e-591b-49cc-aea9-ae5c797a5cfa</stp>
-        <tr r="V1" s="24"/>
+        <stp>4e7f5d82-e903-4719-a721-005724a04275</stp>
+        <tr r="DN1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>09764e92-b156-4aa0-8ad1-5c7882cca6fe</stp>
-        <tr r="FF1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>181e33ea-000f-4056-ae59-6c0afecbf34b</stp>
-        <tr r="AQ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b244a848-325d-4b1d-b7dc-b345ded2fb58</stp>
-        <tr r="HC1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d24d7819-65f6-4cef-9441-1652aa51e40e</stp>
-        <tr r="L1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9ad876cb-ba14-4a8c-8587-1de056ba51ef</stp>
-        <tr r="DT1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f50232be-1b36-40fb-9231-2db7d89c657f</stp>
-        <tr r="FH1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>330947f5-98af-4c56-995a-15fb53e0b6ce</stp>
-        <tr r="DJ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>17b90012-a3cf-4e80-939e-42bcee5a9691</stp>
-        <tr r="AZ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2ac09cbb-3480-4776-a5e0-08c7b7f6fca4</stp>
-        <tr r="EF1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a38707fa-f314-4e73-ad50-0176ebb0895a</stp>
-        <tr r="AG1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2a9f1ecd-bc6f-45cc-945b-8ebfc9159b5f</stp>
-        <tr r="CU1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a812f512-7d9a-4672-817c-d544253a5182</stp>
-        <tr r="FP1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2295fde7-13ea-4885-b0e4-c92ab6ef565d</stp>
-        <tr r="CZ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6c3cc40f-e970-49e0-80a2-c03ece932855</stp>
-        <tr r="BN1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>448038c1-57f6-4722-be58-c4f56c6c7fc3</stp>
-        <tr r="FC1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c8775573-12eb-401e-ae3f-3d51e1d19041</stp>
-        <tr r="FA1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>eb8b60ff-30ae-4bfc-b0cf-3e06eb182fe3</stp>
-        <tr r="DS1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>154f6d4b-4fac-4fac-b5e3-e01c5d948742</stp>
-        <tr r="HD1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1d19e762-384f-4c9f-aafe-ccf442ac014e</stp>
-        <tr r="DE1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>61da1bab-5091-4cca-a9e0-4d07438025f3</stp>
-        <tr r="BD1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2d11bfbf-f492-4280-b0d7-34129a7ede18</stp>
-        <tr r="HE1" s="24"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d7dd2e81-d8f0-476a-83fd-0cbcc7066e51</stp>
-        <tr r="GM1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bd624fd2-0e90-427b-8263-f1da6e85928b</stp>
-        <tr r="AS1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>92573a73-da4b-417f-a307-c66f6aa3a6c5</stp>
-        <tr r="DV1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>489e55e2-0a83-419d-8e9d-93fb1b35910f</stp>
-        <tr r="X1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>83ac003d-6ad9-4023-b1bb-ac9e507157ab</stp>
-        <tr r="BS1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>219cda12-7b31-47ca-92f0-fa5cfc587bda</stp>
-        <tr r="HJ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c27ca1d0-df47-44d7-82c2-808195bfc6d8</stp>
-        <tr r="HG1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0b9f6d8b-a1e5-44b4-80bb-ca4bf5106eec</stp>
-        <tr r="AW1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b2666519-5c53-4182-a656-fdf53eab9596</stp>
-        <tr r="CO1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9034fb14-1e99-4fdf-9d0a-2e5a57885fea</stp>
-        <tr r="DH1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ec8c9bea-624f-42ad-ba62-0f50452e2732</stp>
-        <tr r="FE1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3ecf6ad0-ed84-4f30-90d4-8b955032ff6b</stp>
-        <tr r="AN1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6bf31456-60c2-4f24-8f4d-919dc3101cd0</stp>
-        <tr r="GT1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fd95aeae-e491-4173-8ab6-cdcc9adcd18e</stp>
-        <tr r="BG1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bcaa53fc-3511-4efb-b756-d6636acb8b01</stp>
-        <tr r="FB1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>33309c09-c072-4ef7-8a0c-16913111b2de</stp>
-        <tr r="Y1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3d0a9a34-c2e0-47ab-8079-437d763f1738</stp>
-        <tr r="GP1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c35e02f7-b2b8-41be-80d4-93130bf4b298</stp>
-        <tr r="EQ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c57494d2-1f8c-417e-b84b-75a49061de6f</stp>
-        <tr r="CG1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b76c143b-24ea-41f3-b3ed-9e7d122f01bb</stp>
-        <tr r="T1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>edc7ecd1-af2d-4361-94b5-e1ae7dca1b8f</stp>
-        <tr r="DP1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6e2d5113-e1b1-4f3c-a535-7c294e3cbeda</stp>
-        <tr r="DN1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bf57fce3-1d70-43ca-bd3a-6cb9a4f31337</stp>
-        <tr r="AT1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e86303d8-0f0a-431e-800f-ebb1c94a379c</stp>
-        <tr r="P1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e3898fec-50bf-4011-ba2e-9cd8fa180cbb</stp>
-        <tr r="DQ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>aa0d24be-b7f8-44d6-9925-c558ff957be7</stp>
-        <tr r="AV1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>073bf0b1-6221-4533-9f8f-0b254849bb49</stp>
-        <tr r="BQ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1287f2fc-d125-49c4-a2ab-56e7018a14b0</stp>
-        <tr r="ER1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>17be1d95-db87-4031-8c74-ef044ead6106</stp>
-        <tr r="DF1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6b0c0695-c25d-4a5e-a43a-566137a41caf</stp>
-        <tr r="DM1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>eb47b8fd-99c6-4ef2-92a3-ff787cd226ef</stp>
-        <tr r="CA1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>27618332-78f6-449c-a03d-621f97297e37</stp>
+        <stp>d2e8d50a-3ebd-4024-9c62-b68d3b6b6837</stp>
         <tr r="AU1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ba18655c-b7f5-4c0a-b5c3-55945062e2ea</stp>
-        <tr r="GD1" s="24"/>
+        <stp>0e8eab65-c616-4cd9-8c38-4f09ca0ae36c</stp>
+        <tr r="CY1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f79db241-1cba-4180-bf1f-630a6084e5ea</stp>
-        <tr r="AO1" s="24"/>
+        <stp>d19bfc80-19ea-4a02-ac9b-02c5a43a84c3</stp>
+        <tr r="D1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f56444c4-d3cc-4c4b-a430-7c964759cc9c</stp>
-        <tr r="AC1" s="24"/>
+        <stp>951e4386-fbab-4c6d-8b9d-13da0cf7c7b4</stp>
+        <tr r="BE1" s="24"/>
       </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>be6078d3-91b3-42c4-9c3f-105d4ee415a2</stp>
-        <tr r="GL1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1227fbda-7f05-43b3-bb73-537bc2c23f20</stp>
-        <tr r="GR1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>0da3836e-d118-4783-8da4-bdd725cfa42e</stp>
+        <stp>9cbf3609-3980-4e9b-84ce-1886c3f2f63a</stp>
         <tr r="GN1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>dae1c9e2-2a66-4593-a285-96e211099bf7</stp>
-        <tr r="BE1" s="24"/>
+        <stp>0527c859-13c8-42b6-8a5b-e0d0aeb1b002</stp>
+        <tr r="BC1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2ea7e645-33d1-4c53-b7bf-ccf56df462cf</stp>
-        <tr r="HB1" s="24"/>
+        <stp>ffc9c82f-da9e-496f-b127-5cb3c25f5dc1</stp>
+        <tr r="BD1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4e0fb9c53bb34b58a6c845d925ff827b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c0065031-65b7-49bd-bd5c-2297c880a629</stp>
+        <tr r="EB1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>adc3acbc-407d-4c8b-9d5a-23d6f6613eaa</stp>
-        <tr r="CX1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cd555ac1-bb3d-4915-9aa6-26dcdec99d91</stp>
-        <tr r="EK1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>eb311af2-05f7-4674-acb7-0dfde54ae083</stp>
-        <tr r="CN1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>84472cb2-862d-4109-ad3c-31ef1abcb11b</stp>
-        <tr r="DR1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4de6ea06-c7a0-4aa3-90f6-c25e4055c5ad</stp>
-        <tr r="AM1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d6a929a4-e1e1-44b3-8260-b9783d431634</stp>
-        <tr r="EO1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d0a741be-68e4-4e79-a5e5-38ccf04acf0b</stp>
-        <tr r="FO1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6e05894b-2bd6-4ed7-8234-ac9ec86f2482</stp>
-        <tr r="BV1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>821f2e27-082f-4951-b8a5-cb82faf2c16e</stp>
-        <tr r="EJ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>33f9840d-4043-4ad1-a1c1-cf838405e697</stp>
-        <tr r="C1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>516880b5-b155-4255-9012-38de19d1dc6e</stp>
-        <tr r="FZ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fe0637e9-6f9e-45c0-98a8-abbd4d2a8689</stp>
-        <tr r="DL1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5bed68d7-55b7-4e05-8b83-a4672b4e61f6</stp>
-        <tr r="GO1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8dd750f9-ff0b-4b2e-af76-c3c5b40d4b5f</stp>
-        <tr r="EM1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cac1d042-0c83-4441-92f3-fa52d1d84cd8</stp>
-        <tr r="EG1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8b3147a8-f70a-4244-8456-f77f49bf1940</stp>
-        <tr r="BY1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6c53bcbb-9364-4a23-95ea-0ae4d8c7c308</stp>
-        <tr r="FV1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2486688a-bdf6-42cb-bb0d-28e0dff7bdab</stp>
-        <tr r="CP1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c29dae4b-2436-4771-a643-f1d4cc12f4fc</stp>
-        <tr r="FQ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b544c16c-b21c-495c-aa42-7d82f72f3ecf</stp>
-        <tr r="GB1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e4d93e65-5acd-407e-aacb-867d90ea9cc6</stp>
-        <tr r="CM1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b55d7556-37c3-4fa7-9b6b-ab33aff3c1a3</stp>
-        <tr r="EX1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9558baef-0d65-4931-8ce4-53e0f0b60480</stp>
-        <tr r="FT1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cfb2bdf0-7dd4-40d9-857a-7c9c7950cf64</stp>
-        <tr r="AY1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>30de43eb-9775-44bc-a493-56df45fe8d31</stp>
-        <tr r="AE1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>62287b85-55c5-4830-9509-bf457ff57bce</stp>
-        <tr r="EH1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e26916c0a9ef4fd195714ac92671fecf">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>66b8b3f1-6c76-447d-ab5b-5d412c353b38</stp>
-        <tr r="DW1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c8c57a50-8607-4bea-8f63-93a122721040</stp>
-        <tr r="EW1" s="24"/>
+        <stp>4a1d5c05-ffc3-4b82-bb53-09bfa2d4334f</stp>
+        <tr r="FW1" s="24"/>
       </tp>
     </main>
   </volType>
@@ -2805,7 +2797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7E4CEA-E98D-425A-8C40-993213D523C4}">
-  <dimension ref="A1:HK7538"/>
+  <dimension ref="A1:HK7566"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
@@ -62274,6 +62266,146 @@
     <row r="7538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7538" s="1">
         <v>45247</v>
+      </c>
+    </row>
+    <row r="7539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7539" s="1">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="7540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7540" s="1">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="7541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7541" s="1">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="7542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7542" s="1">
+        <v>45253</v>
+      </c>
+    </row>
+    <row r="7543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7543" s="1">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="7544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7544" s="1">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="7545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7545" s="1">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="7546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7546" s="1">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="7547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7547" s="1">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="7548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7548" s="1">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="7549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7549" s="1">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="7550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7550" s="1">
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="7551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7551" s="1">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="7552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7552" s="1">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="7553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7553" s="1">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="7554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7554" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="7555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7555" s="1">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="7556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7556" s="1">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="7557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7557" s="1">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="7558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7558" s="1">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="7559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7559" s="1">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="7560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7560" s="1">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="7561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7561" s="1">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="7562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7562" s="1">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="7563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7563" s="1">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="7564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7564" s="1">
+        <v>45285</v>
+      </c>
+    </row>
+    <row r="7565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7565" s="1">
+        <v>45286</v>
+      </c>
+    </row>
+    <row r="7566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7566" s="1">
+        <v>45287</v>
       </c>
     </row>
   </sheetData>
